--- a/others/Quyphepbuton2024.xlsx
+++ b/others/Quyphepbuton2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nphuo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\phutmot-ver2\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC99D6BF-F940-4157-A287-F3ABAC2E57DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D366322-B131-405F-B184-4F9070BBB092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="1314">
   <si>
     <t>Quỹ phép/bù tồn chuyển tháng 1/2025</t>
   </si>
@@ -2307,6 +2307,1677 @@
   </si>
   <si>
     <t>12. SDA</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>APG221226009</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Đoan Trang</t>
+  </si>
+  <si>
+    <t>APG221226004</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hiếu</t>
+  </si>
+  <si>
+    <t>APG221226001</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hảo</t>
+  </si>
+  <si>
+    <t>APG221227001</t>
+  </si>
+  <si>
+    <t>Trang Bảo Toàn</t>
+  </si>
+  <si>
+    <t>APG221229002</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Tâm</t>
+  </si>
+  <si>
+    <t>APG230217001</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Trúc Dung</t>
+  </si>
+  <si>
+    <t>APG230217002</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ly Bâng</t>
+  </si>
+  <si>
+    <t>APG230217003</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Trúc Ngân</t>
+  </si>
+  <si>
+    <t>APG230217004</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hạnh</t>
+  </si>
+  <si>
+    <t>APG230217006</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Gái</t>
+  </si>
+  <si>
+    <t>APG230217007</t>
+  </si>
+  <si>
+    <t>Đào Thị Kim Oanh</t>
+  </si>
+  <si>
+    <t>APG230201007</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Quốc</t>
+  </si>
+  <si>
+    <t>APG230202003</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Xuân Mai</t>
+  </si>
+  <si>
+    <t>APG230316004</t>
+  </si>
+  <si>
+    <t>Lê Thị Ngọc Đẹp</t>
+  </si>
+  <si>
+    <t>APG230324003</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mai</t>
+  </si>
+  <si>
+    <t>APG230324011</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thi</t>
+  </si>
+  <si>
+    <t>APG230321011</t>
+  </si>
+  <si>
+    <t>Phạm Thị Thùy Linh</t>
+  </si>
+  <si>
+    <t>APG230320016</t>
+  </si>
+  <si>
+    <t>Nguyễn Phước Vinh</t>
+  </si>
+  <si>
+    <t>APG230320015</t>
+  </si>
+  <si>
+    <t>Trần Anh Vũ</t>
+  </si>
+  <si>
+    <t>APG230317002</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Minh Ngân</t>
+  </si>
+  <si>
+    <t>APG230321001</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thu Linh</t>
+  </si>
+  <si>
+    <t>APG230321005</t>
+  </si>
+  <si>
+    <t>Trần  Huy</t>
+  </si>
+  <si>
+    <t>APG230321006</t>
+  </si>
+  <si>
+    <t>Nguyễn Thy Dáng Uyên</t>
+  </si>
+  <si>
+    <t>APG230315004</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Tố Nương</t>
+  </si>
+  <si>
+    <t>APG230323003</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng Hiền</t>
+  </si>
+  <si>
+    <t>APG230316013</t>
+  </si>
+  <si>
+    <t>Lê Thị Chàm</t>
+  </si>
+  <si>
+    <t>APG230316014</t>
+  </si>
+  <si>
+    <t>Đoàn Thị Mỹ Nhung</t>
+  </si>
+  <si>
+    <t>APG230316016</t>
+  </si>
+  <si>
+    <t>Đoàn Thị Ba</t>
+  </si>
+  <si>
+    <t>APG230316017</t>
+  </si>
+  <si>
+    <t>Lê Thị Thanh Yến</t>
+  </si>
+  <si>
+    <t>APG230316011</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Triệu</t>
+  </si>
+  <si>
+    <t>APG230316009</t>
+  </si>
+  <si>
+    <t>Phùng Thị Thùy Trang</t>
+  </si>
+  <si>
+    <t>APG230316010</t>
+  </si>
+  <si>
+    <t>Phạm Thị Mỹ Dung</t>
+  </si>
+  <si>
+    <t>APG230411002</t>
+  </si>
+  <si>
+    <t>Phan Đình Trung</t>
+  </si>
+  <si>
+    <t>APG230406011</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Đoan Trinh</t>
+  </si>
+  <si>
+    <t>APG230406013</t>
+  </si>
+  <si>
+    <t>Lê Thị Chương</t>
+  </si>
+  <si>
+    <t>APG230406015</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Lượm</t>
+  </si>
+  <si>
+    <t>APG230407003</t>
+  </si>
+  <si>
+    <t>Lê Thị Cẩm Linh</t>
+  </si>
+  <si>
+    <t>APG230407004</t>
+  </si>
+  <si>
+    <t>APG230407008</t>
+  </si>
+  <si>
+    <t>Phạm Thị Tới</t>
+  </si>
+  <si>
+    <t>APG230407009</t>
+  </si>
+  <si>
+    <t>Bùi Thị Xuân Quý</t>
+  </si>
+  <si>
+    <t>APG230417005</t>
+  </si>
+  <si>
+    <t>Trần Thị Loan</t>
+  </si>
+  <si>
+    <t>APG230427004</t>
+  </si>
+  <si>
+    <t>Nguyễn Hồng Đảm</t>
+  </si>
+  <si>
+    <t>APG230404013</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Thanh Kiều</t>
+  </si>
+  <si>
+    <t>APG230404011</t>
+  </si>
+  <si>
+    <t>Trần Thị Ngọc Hoà</t>
+  </si>
+  <si>
+    <t>APG230407011</t>
+  </si>
+  <si>
+    <t>Lê Thị Thu Hương</t>
+  </si>
+  <si>
+    <t>APG230411005</t>
+  </si>
+  <si>
+    <t>Trần Thế Qua</t>
+  </si>
+  <si>
+    <t>APG230411006</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Bích</t>
+  </si>
+  <si>
+    <t>APG230411008</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Hồng Vân</t>
+  </si>
+  <si>
+    <t>APG230411009</t>
+  </si>
+  <si>
+    <t>Đồng Gia Huy</t>
+  </si>
+  <si>
+    <t>APG230411010</t>
+  </si>
+  <si>
+    <t>Trần Hữu Tạo</t>
+  </si>
+  <si>
+    <t>APG230421005</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mỹ Uyên</t>
+  </si>
+  <si>
+    <t>APG230427006</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Ước</t>
+  </si>
+  <si>
+    <t>APG230406016</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Anh</t>
+  </si>
+  <si>
+    <t>APG230406017</t>
+  </si>
+  <si>
+    <t>Lê Thị Ngọc Lành</t>
+  </si>
+  <si>
+    <t>APG230417007</t>
+  </si>
+  <si>
+    <t>Đặng Thị Kim Phương</t>
+  </si>
+  <si>
+    <t>APG230406021</t>
+  </si>
+  <si>
+    <t>Huỳnh Ngọc Thái Yên</t>
+  </si>
+  <si>
+    <t>APG230407013</t>
+  </si>
+  <si>
+    <t>Lê Thị Thảo</t>
+  </si>
+  <si>
+    <t>APG230412011</t>
+  </si>
+  <si>
+    <t>Lâm Thanh Hải</t>
+  </si>
+  <si>
+    <t>APG230417009</t>
+  </si>
+  <si>
+    <t>Lê Thị Kim Hương</t>
+  </si>
+  <si>
+    <t>APG230417011</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Khang</t>
+  </si>
+  <si>
+    <t>APG230405014</t>
+  </si>
+  <si>
+    <t>Lê Tấn Đạt</t>
+  </si>
+  <si>
+    <t>APG230405015</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiềng Mộng</t>
+  </si>
+  <si>
+    <t>APG230412016</t>
+  </si>
+  <si>
+    <t>Nguyễn Thành Tất</t>
+  </si>
+  <si>
+    <t>APG230404017</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Thức</t>
+  </si>
+  <si>
+    <t>APG230406038</t>
+  </si>
+  <si>
+    <t>Hà Huy Đồng</t>
+  </si>
+  <si>
+    <t>APG230407018</t>
+  </si>
+  <si>
+    <t>Lê Văn Hùng</t>
+  </si>
+  <si>
+    <t>APG230407019</t>
+  </si>
+  <si>
+    <t>Võ Văn Tâm</t>
+  </si>
+  <si>
+    <t>APG230407020</t>
+  </si>
+  <si>
+    <t>Lương Thanh Trúc</t>
+  </si>
+  <si>
+    <t>APG230409002</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Sen</t>
+  </si>
+  <si>
+    <t>APG230409011</t>
+  </si>
+  <si>
+    <t>Trương Phan Tấn Hiển</t>
+  </si>
+  <si>
+    <t>APG230409012</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Hường</t>
+  </si>
+  <si>
+    <t>APG230409013</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Lệ Hà</t>
+  </si>
+  <si>
+    <t>APG230417015</t>
+  </si>
+  <si>
+    <t>Trần Tấn Cang</t>
+  </si>
+  <si>
+    <t>APG230421003</t>
+  </si>
+  <si>
+    <t>La Thị Hiền</t>
+  </si>
+  <si>
+    <t>APG230427008</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng Kim</t>
+  </si>
+  <si>
+    <t>APG230405011</t>
+  </si>
+  <si>
+    <t>Lại Thanh Đông</t>
+  </si>
+  <si>
+    <t>APG230405013</t>
+  </si>
+  <si>
+    <t>Võ Thị Như Phượng</t>
+  </si>
+  <si>
+    <t>APG230412006</t>
+  </si>
+  <si>
+    <t>Lê Minh Tuấn</t>
+  </si>
+  <si>
+    <t>APG230427009</t>
+  </si>
+  <si>
+    <t>Võ Dương Vinh</t>
+  </si>
+  <si>
+    <t>APG230412007</t>
+  </si>
+  <si>
+    <t>Trần Thị Bé</t>
+  </si>
+  <si>
+    <t>APG230525008</t>
+  </si>
+  <si>
+    <t>Nguyễn Lý Thiên Ngân</t>
+  </si>
+  <si>
+    <t>APG230508002</t>
+  </si>
+  <si>
+    <t>Hoàng Ngọc Kim</t>
+  </si>
+  <si>
+    <t>APG230517002</t>
+  </si>
+  <si>
+    <t>Nguyễn Hồng Vũ</t>
+  </si>
+  <si>
+    <t>APG230511004</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Bé Nhi</t>
+  </si>
+  <si>
+    <t>APG230515004</t>
+  </si>
+  <si>
+    <t>Huỳnh Phúc Chiến</t>
+  </si>
+  <si>
+    <t>APG230517004</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Tiền</t>
+  </si>
+  <si>
+    <t>APG230515007</t>
+  </si>
+  <si>
+    <t>Đào Minh Hoa Niệm</t>
+  </si>
+  <si>
+    <t>APG230518001</t>
+  </si>
+  <si>
+    <t>Lê Nguyên Sôn</t>
+  </si>
+  <si>
+    <t>APG230515006</t>
+  </si>
+  <si>
+    <t>Tạ Quang Huy</t>
+  </si>
+  <si>
+    <t>APG230517005</t>
+  </si>
+  <si>
+    <t>Trần Diệp Thảo Nguyên</t>
+  </si>
+  <si>
+    <t>APG230517006</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Duy</t>
+  </si>
+  <si>
+    <t>APG230525006</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Phương Kiều</t>
+  </si>
+  <si>
+    <t>APG230525009</t>
+  </si>
+  <si>
+    <t>Trần Thị Hồng Hiếu</t>
+  </si>
+  <si>
+    <t>APG230511005</t>
+  </si>
+  <si>
+    <t>Phan Thị Mỹ Hồng</t>
+  </si>
+  <si>
+    <t>APG230523001</t>
+  </si>
+  <si>
+    <t>Trần Thanh Vàng</t>
+  </si>
+  <si>
+    <t>APG230526002</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Tùng</t>
+  </si>
+  <si>
+    <t>APG230526003</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Hiếu</t>
+  </si>
+  <si>
+    <t>APG230526004</t>
+  </si>
+  <si>
+    <t>Trần Phương Vương</t>
+  </si>
+  <si>
+    <t>APG230515011</t>
+  </si>
+  <si>
+    <t>APG230517001</t>
+  </si>
+  <si>
+    <t>Trần Thị Ánh Tâm</t>
+  </si>
+  <si>
+    <t>APG230601010</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiền Phong</t>
+  </si>
+  <si>
+    <t>APG230601011</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hà</t>
+  </si>
+  <si>
+    <t>APG230619008</t>
+  </si>
+  <si>
+    <t>Lê Thị Nguyên Sa</t>
+  </si>
+  <si>
+    <t>APG230619009</t>
+  </si>
+  <si>
+    <t>Trần Minh Tuấn</t>
+  </si>
+  <si>
+    <t>APG230619011</t>
+  </si>
+  <si>
+    <t>Phạm Thị Yến Vân</t>
+  </si>
+  <si>
+    <t>APG230619014</t>
+  </si>
+  <si>
+    <t>Lê Hữu Tấn</t>
+  </si>
+  <si>
+    <t>APG230619005</t>
+  </si>
+  <si>
+    <t>Hồ Đắc Dũng</t>
+  </si>
+  <si>
+    <t>APG230620002</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Bích</t>
+  </si>
+  <si>
+    <t>APG230624005</t>
+  </si>
+  <si>
+    <t>Trần Thị Kim Mĩ</t>
+  </si>
+  <si>
+    <t>APG230624007</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thanh Đài</t>
+  </si>
+  <si>
+    <t>APG230624008</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Ngọc Thắm</t>
+  </si>
+  <si>
+    <t>APG230626002</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Diễm Hương</t>
+  </si>
+  <si>
+    <t>APG230608004</t>
+  </si>
+  <si>
+    <t>Lê Thị Thúy Vy</t>
+  </si>
+  <si>
+    <t>APG230619015</t>
+  </si>
+  <si>
+    <t>Huỳnh Văn Hoàng</t>
+  </si>
+  <si>
+    <t>APG230619018</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn An</t>
+  </si>
+  <si>
+    <t>APG230624014</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Hưng</t>
+  </si>
+  <si>
+    <t>APG230626003</t>
+  </si>
+  <si>
+    <t>Lê Thị Bích Quyên</t>
+  </si>
+  <si>
+    <t>APG230627002</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Minh</t>
+  </si>
+  <si>
+    <t>APG230601013</t>
+  </si>
+  <si>
+    <t>Trịnh Mai Hoàng Nhiên</t>
+  </si>
+  <si>
+    <t>APG230609002</t>
+  </si>
+  <si>
+    <t>Đồng Thanh Lâm</t>
+  </si>
+  <si>
+    <t>APG230621001</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Kính</t>
+  </si>
+  <si>
+    <t>APG230601014</t>
+  </si>
+  <si>
+    <t>Đoàn Thị Thanh Nhàn</t>
+  </si>
+  <si>
+    <t>APG230627008</t>
+  </si>
+  <si>
+    <t>Nguyễn Đại Lợi</t>
+  </si>
+  <si>
+    <t>APG230609004</t>
+  </si>
+  <si>
+    <t>Nguyễn Linh Hoàng</t>
+  </si>
+  <si>
+    <t>APG230623004</t>
+  </si>
+  <si>
+    <t>Trần Xuân Quang</t>
+  </si>
+  <si>
+    <t>APG230615006</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Mong</t>
+  </si>
+  <si>
+    <t>APG230712001</t>
+  </si>
+  <si>
+    <t>Trần Vi Đan</t>
+  </si>
+  <si>
+    <t>APG230703005</t>
+  </si>
+  <si>
+    <t>Nông Văn Quý</t>
+  </si>
+  <si>
+    <t>APG230708001</t>
+  </si>
+  <si>
+    <t>Trần Duy Linh</t>
+  </si>
+  <si>
+    <t>APG230703006</t>
+  </si>
+  <si>
+    <t>Võ Thị Thanh Kiều</t>
+  </si>
+  <si>
+    <t>APG230721003</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Hòa</t>
+  </si>
+  <si>
+    <t>APG230712006</t>
+  </si>
+  <si>
+    <t>Dương Thị Minh Trân</t>
+  </si>
+  <si>
+    <t>APG230721001</t>
+  </si>
+  <si>
+    <t>Phạm Quốc Bảo</t>
+  </si>
+  <si>
+    <t>APG230703007</t>
+  </si>
+  <si>
+    <t>Lương Trần Cường</t>
+  </si>
+  <si>
+    <t>APG230712007</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Trà Mi</t>
+  </si>
+  <si>
+    <t>APG230712009</t>
+  </si>
+  <si>
+    <t>Nguyễn Tú Nhi</t>
+  </si>
+  <si>
+    <t>APG230708002</t>
+  </si>
+  <si>
+    <t>Quách Tấn Khương</t>
+  </si>
+  <si>
+    <t>APG230720001</t>
+  </si>
+  <si>
+    <t>Võ Tấn Tuyển</t>
+  </si>
+  <si>
+    <t>APG230720002</t>
+  </si>
+  <si>
+    <t>Nguyễn Tấn Trung</t>
+  </si>
+  <si>
+    <t>APG230801002</t>
+  </si>
+  <si>
+    <t>Nguyễn Công Hoàng</t>
+  </si>
+  <si>
+    <t>APG230809001</t>
+  </si>
+  <si>
+    <t>Vi Thị Từ</t>
+  </si>
+  <si>
+    <t>APG230823001</t>
+  </si>
+  <si>
+    <t>Lê Ngọc Huy</t>
+  </si>
+  <si>
+    <t>APG230826001</t>
+  </si>
+  <si>
+    <t>Bùi Anh Vương</t>
+  </si>
+  <si>
+    <t>APG230818002</t>
+  </si>
+  <si>
+    <t>Trương Minh Trí</t>
+  </si>
+  <si>
+    <t>APG230823002</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Lộc</t>
+  </si>
+  <si>
+    <t>APG230801003</t>
+  </si>
+  <si>
+    <t>Diệp Minh Luân</t>
+  </si>
+  <si>
+    <t>APG230905002</t>
+  </si>
+  <si>
+    <t>Dương Thanh Tâm</t>
+  </si>
+  <si>
+    <t>APG220819001</t>
+  </si>
+  <si>
+    <t>Đàm Duy Trường</t>
+  </si>
+  <si>
+    <t>APG230914001</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hậu</t>
+  </si>
+  <si>
+    <t>APG230905003</t>
+  </si>
+  <si>
+    <t>Đặng Thị Kim Hiệp</t>
+  </si>
+  <si>
+    <t>APG230919002</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Phương Trúc</t>
+  </si>
+  <si>
+    <t>APG230919004</t>
+  </si>
+  <si>
+    <t>Lý Trương Thùy Trang</t>
+  </si>
+  <si>
+    <t>APG231127001</t>
+  </si>
+  <si>
+    <t>Lê Minh Nghĩa</t>
+  </si>
+  <si>
+    <t>APG231225003</t>
+  </si>
+  <si>
+    <t>Nguyễn Triều Hải Đăng</t>
+  </si>
+  <si>
+    <t>APG231225004</t>
+  </si>
+  <si>
+    <t>Phạm Thị Huỳnh Như</t>
+  </si>
+  <si>
+    <t>APG231204001</t>
+  </si>
+  <si>
+    <t>Trần Nguyễn Nhựt Huy</t>
+  </si>
+  <si>
+    <t>APG240112001</t>
+  </si>
+  <si>
+    <t>Đỗ Khắc Gia Anh</t>
+  </si>
+  <si>
+    <t>APG240115004</t>
+  </si>
+  <si>
+    <t>Nguyễn Long Nhật</t>
+  </si>
+  <si>
+    <t>APG230323005</t>
+  </si>
+  <si>
+    <t>Võ Minh Kim</t>
+  </si>
+  <si>
+    <t>APG240202002</t>
+  </si>
+  <si>
+    <t>Nguyễn Châu Tuấn</t>
+  </si>
+  <si>
+    <t>APG240205002</t>
+  </si>
+  <si>
+    <t>Huỳnh Quốc Khánh</t>
+  </si>
+  <si>
+    <t>APG240226001</t>
+  </si>
+  <si>
+    <t>Lê Văn Hải</t>
+  </si>
+  <si>
+    <t>APG240130001</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Bá</t>
+  </si>
+  <si>
+    <t>APG240130002</t>
+  </si>
+  <si>
+    <t>Trần Văn Phúc</t>
+  </si>
+  <si>
+    <t>APG240319002</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Minh Nhi</t>
+  </si>
+  <si>
+    <t>APG240304003</t>
+  </si>
+  <si>
+    <t>Lê An Lộc</t>
+  </si>
+  <si>
+    <t>APG240319004</t>
+  </si>
+  <si>
+    <t>Thiều Quốc Quân</t>
+  </si>
+  <si>
+    <t>APG240312004</t>
+  </si>
+  <si>
+    <t>Lê Trầm Tươi</t>
+  </si>
+  <si>
+    <t>APG240401004</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Trí</t>
+  </si>
+  <si>
+    <t>APG240408003</t>
+  </si>
+  <si>
+    <t>Hồ Thị Kim Chi</t>
+  </si>
+  <si>
+    <t>APG240408004</t>
+  </si>
+  <si>
+    <t>Trần Thị Hồng Phương</t>
+  </si>
+  <si>
+    <t>APG240410004</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn Vũ</t>
+  </si>
+  <si>
+    <t>APG240425002</t>
+  </si>
+  <si>
+    <t>Nguyễn Anh Thuận</t>
+  </si>
+  <si>
+    <t>APG240427003</t>
+  </si>
+  <si>
+    <t>Trương Hòa Siêu</t>
+  </si>
+  <si>
+    <t>APG240428001</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuân</t>
+  </si>
+  <si>
+    <t>APG231208002</t>
+  </si>
+  <si>
+    <t>Trương Nữ Hoài Dung</t>
+  </si>
+  <si>
+    <t>APG240410006</t>
+  </si>
+  <si>
+    <t>Nguyễn Thành Khang</t>
+  </si>
+  <si>
+    <t>APG240426004</t>
+  </si>
+  <si>
+    <t>Trần Thị Hồng Loan</t>
+  </si>
+  <si>
+    <t>APG240408002</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Diệm</t>
+  </si>
+  <si>
+    <t>APG240405004</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Bích Lộc</t>
+  </si>
+  <si>
+    <t>APG240405005</t>
+  </si>
+  <si>
+    <t>Tăng Thị Quyên Chi</t>
+  </si>
+  <si>
+    <t>APG240408007</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Dũng</t>
+  </si>
+  <si>
+    <t>APG240408008</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Đức</t>
+  </si>
+  <si>
+    <t>APG240424002</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Dương</t>
+  </si>
+  <si>
+    <t>APG240426006</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thanh Trúc</t>
+  </si>
+  <si>
+    <t>APG240426007</t>
+  </si>
+  <si>
+    <t>Phạm Thị Ngọc Phấn</t>
+  </si>
+  <si>
+    <t>APG240426010</t>
+  </si>
+  <si>
+    <t>Đặng Thị Cúc</t>
+  </si>
+  <si>
+    <t>APG240426005</t>
+  </si>
+  <si>
+    <t>Ngô Quốc Đạt</t>
+  </si>
+  <si>
+    <t>APG240410007</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thu Lương</t>
+  </si>
+  <si>
+    <t>APG1240419001</t>
+  </si>
+  <si>
+    <t>Nguyễn Trọng Tình</t>
+  </si>
+  <si>
+    <t>APG240428003</t>
+  </si>
+  <si>
+    <t>Thạch Ngọc Tình</t>
+  </si>
+  <si>
+    <t>APG240422002</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Cẩm Giang</t>
+  </si>
+  <si>
+    <t>APG240506005</t>
+  </si>
+  <si>
+    <t>Lê Nguyễn Nguyệt Hà</t>
+  </si>
+  <si>
+    <t>APG1240510002</t>
+  </si>
+  <si>
+    <t>Nguyễn Quốc Việt</t>
+  </si>
+  <si>
+    <t>APG0240514001</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Bích Nhi</t>
+  </si>
+  <si>
+    <t>APG1240510003</t>
+  </si>
+  <si>
+    <t>APG1240510004</t>
+  </si>
+  <si>
+    <t>Huỳnh Phúc An</t>
+  </si>
+  <si>
+    <t>APG1240510005</t>
+  </si>
+  <si>
+    <t>Võ Phúc Hân</t>
+  </si>
+  <si>
+    <t>APG1240527001</t>
+  </si>
+  <si>
+    <t>Phạm Nguyễn Đình Lân</t>
+  </si>
+  <si>
+    <t>APG1240510006</t>
+  </si>
+  <si>
+    <t>Trương Thanh Tùng</t>
+  </si>
+  <si>
+    <t>APG0240520002</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thủy</t>
+  </si>
+  <si>
+    <t>APG0240515008</t>
+  </si>
+  <si>
+    <t>Trần Thị Thu Diễm</t>
+  </si>
+  <si>
+    <t>APG1240520003</t>
+  </si>
+  <si>
+    <t>Huỳnh Quốc Hiệp</t>
+  </si>
+  <si>
+    <t>APG1240520004</t>
+  </si>
+  <si>
+    <t>Trần Bảo Duy</t>
+  </si>
+  <si>
+    <t>APG1240527005</t>
+  </si>
+  <si>
+    <t>Nguyễn Thương Hoài Thanh</t>
+  </si>
+  <si>
+    <t>APG240319003</t>
+  </si>
+  <si>
+    <t>Lê Châu Đại</t>
+  </si>
+  <si>
+    <t>APG1240515010</t>
+  </si>
+  <si>
+    <t>Trần Thanh Vinh</t>
+  </si>
+  <si>
+    <t>APG1240607001</t>
+  </si>
+  <si>
+    <t>Nguyễn Huỳnh Minh Kha</t>
+  </si>
+  <si>
+    <t>APG0240617001</t>
+  </si>
+  <si>
+    <t>Lê Thị Kim Thoa</t>
+  </si>
+  <si>
+    <t>APG1240603023</t>
+  </si>
+  <si>
+    <t>Phan Ngọc Trực</t>
+  </si>
+  <si>
+    <t>APG1240617002</t>
+  </si>
+  <si>
+    <t>Khê Thành Nhiên</t>
+  </si>
+  <si>
+    <t>APG1240617003</t>
+  </si>
+  <si>
+    <t>Nguyễn Thiên Văn</t>
+  </si>
+  <si>
+    <t>APG1240622001</t>
+  </si>
+  <si>
+    <t>Phạm Thắng</t>
+  </si>
+  <si>
+    <t>APG0240603024</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Lộc</t>
+  </si>
+  <si>
+    <t>APG0240603025</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Yến Thi</t>
+  </si>
+  <si>
+    <t>APG1240603026</t>
+  </si>
+  <si>
+    <t>Nguyễn Quốc Khiêm</t>
+  </si>
+  <si>
+    <t>APG1240614001</t>
+  </si>
+  <si>
+    <t>Thái Kim Phương</t>
+  </si>
+  <si>
+    <t>APG0240617006</t>
+  </si>
+  <si>
+    <t>Lê Thị Kiều Mỹ</t>
+  </si>
+  <si>
+    <t>APG0240603028</t>
+  </si>
+  <si>
+    <t>Đặng Thị Thùy Trang</t>
+  </si>
+  <si>
+    <t>APG0240603029</t>
+  </si>
+  <si>
+    <t>APG0240617004</t>
+  </si>
+  <si>
+    <t>Tạ Hoài Bảo Vi</t>
+  </si>
+  <si>
+    <t>APG0240603030</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kiều Loan</t>
+  </si>
+  <si>
+    <t>APG0240603031</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Quế Anh</t>
+  </si>
+  <si>
+    <t>APG1240603032</t>
+  </si>
+  <si>
+    <t>Phạm Anh Tin</t>
+  </si>
+  <si>
+    <t>APG1240610007</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Quyền</t>
+  </si>
+  <si>
+    <t>APG1240610008</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Nghị</t>
+  </si>
+  <si>
+    <t>APG1240617005</t>
+  </si>
+  <si>
+    <t>Huỳnh Hồng Phước</t>
+  </si>
+  <si>
+    <t>APG1240712002</t>
+  </si>
+  <si>
+    <t>Nguyễn Lê Minh Hiếu</t>
+  </si>
+  <si>
+    <t>APG0240715014</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hoa Sim</t>
+  </si>
+  <si>
+    <t>APG0240719001</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng Nhung</t>
+  </si>
+  <si>
+    <t>APG2240722002</t>
+  </si>
+  <si>
+    <t>Lưu Thị Diễm My</t>
+  </si>
+  <si>
+    <t>APG1240715013</t>
+  </si>
+  <si>
+    <t>Đỗ Thành Hưng</t>
+  </si>
+  <si>
+    <t>APG1240701005</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Long</t>
+  </si>
+  <si>
+    <t>APG2240701017</t>
+  </si>
+  <si>
+    <t>Trần Đức Huy</t>
+  </si>
+  <si>
+    <t>APG1240712004</t>
+  </si>
+  <si>
+    <t>Phạm Quốc Thanh Liêm</t>
+  </si>
+  <si>
+    <t>APG1240715011</t>
+  </si>
+  <si>
+    <t>Trần Văn Minh Vy</t>
+  </si>
+  <si>
+    <t>APG1240718004</t>
+  </si>
+  <si>
+    <t>Lê Văn Đan</t>
+  </si>
+  <si>
+    <t>APG1240718005</t>
+  </si>
+  <si>
+    <t>Nguyễn Hồng Nghĩa</t>
+  </si>
+  <si>
+    <t>APG0240718007</t>
+  </si>
+  <si>
+    <t>Hồ Quận Chúa</t>
+  </si>
+  <si>
+    <t>APG2240722003</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Phương</t>
+  </si>
+  <si>
+    <t>APG2240701010</t>
+  </si>
+  <si>
+    <t>Đậu Văn Thượng</t>
+  </si>
+  <si>
+    <t>APG2240701019</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Thuận</t>
+  </si>
+  <si>
+    <t>APG2240701016</t>
+  </si>
+  <si>
+    <t>Lê Thị Trúc Giang</t>
+  </si>
+  <si>
+    <t>APG2240701009</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Hậu</t>
+  </si>
+  <si>
+    <t>APG2240701013</t>
+  </si>
+  <si>
+    <t>Trần Thị Qúy</t>
+  </si>
+  <si>
+    <t>APG0240710001</t>
+  </si>
+  <si>
+    <t>Đinh Phong Hạnh</t>
+  </si>
+  <si>
+    <t>APG0240712005</t>
+  </si>
+  <si>
+    <t>Trương Thị Mỹ Hoa</t>
+  </si>
+  <si>
+    <t>APG1240719002</t>
+  </si>
+  <si>
+    <t>Trần Công Anh</t>
+  </si>
+  <si>
+    <t>APG2240701011</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Long</t>
+  </si>
+  <si>
+    <t>APG1240712007</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Hoài</t>
+  </si>
+  <si>
+    <t>APG2240701007</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoài Vũ</t>
+  </si>
+  <si>
+    <t>APG2240701018</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Vinh</t>
+  </si>
+  <si>
+    <t>APG1240718008</t>
+  </si>
+  <si>
+    <t>Đặng Thành Vũ</t>
+  </si>
+  <si>
+    <t>APG1240718009</t>
+  </si>
+  <si>
+    <t>Huỳnh Phát</t>
+  </si>
+  <si>
+    <t>APG1240718011</t>
+  </si>
+  <si>
+    <t>Nguyễn Công Luận</t>
+  </si>
+  <si>
+    <t>APG1240718012</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Thanh</t>
+  </si>
+  <si>
+    <t>APG0240801009</t>
+  </si>
+  <si>
+    <t>Trần Thị Kim Xuyến</t>
+  </si>
+  <si>
+    <t>APG1240808001</t>
+  </si>
+  <si>
+    <t>Võ Đức Lâm</t>
+  </si>
+  <si>
+    <t>APG1240826008</t>
+  </si>
+  <si>
+    <t>Nguyễn Hồng Thái Huy</t>
+  </si>
+  <si>
+    <t>APG1240812001</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thanh Hải</t>
+  </si>
+  <si>
+    <t>APG1240801008</t>
+  </si>
+  <si>
+    <t>Phạm Ngọc Thịnh</t>
+  </si>
+  <si>
+    <t>APG1240814004</t>
+  </si>
+  <si>
+    <t>Lê Khắc Hoài</t>
+  </si>
+  <si>
+    <t>APG1240814003</t>
+  </si>
+  <si>
+    <t>Lê Xuân Hà</t>
+  </si>
+  <si>
+    <t>APG0240801015</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Hà</t>
+  </si>
+  <si>
+    <t>APG1240801015</t>
+  </si>
+  <si>
+    <t>Bùi Thanh Tường</t>
+  </si>
+  <si>
+    <t>APG1240805002</t>
+  </si>
+  <si>
+    <t>Đào Thanh Tý</t>
+  </si>
+  <si>
+    <t>APG0240801004</t>
+  </si>
+  <si>
+    <t>Nông Duyên Trinh</t>
+  </si>
+  <si>
+    <t>APG0240801011</t>
+  </si>
+  <si>
+    <t>Dương Thị Thùy Dung</t>
+  </si>
+  <si>
+    <t>APG0240801010</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Bích Ngân</t>
+  </si>
+  <si>
+    <t>APG0240801005</t>
+  </si>
+  <si>
+    <t>Đặng Mai Như Ý</t>
+  </si>
+  <si>
+    <t>APG230317011</t>
+  </si>
+  <si>
+    <t>Trần Thị Ngọc Nữ</t>
+  </si>
+  <si>
+    <t>APG1240712009</t>
+  </si>
+  <si>
+    <t>APG1241113001</t>
+  </si>
+  <si>
+    <t>Phan Cao Trung</t>
+  </si>
+  <si>
+    <t>APG1241118002</t>
+  </si>
+  <si>
+    <t>APG0241108001</t>
+  </si>
+  <si>
+    <t>An Linh Đan</t>
+  </si>
+  <si>
+    <t>APG0241118003</t>
+  </si>
+  <si>
+    <t>Đào Thị Yến Phi</t>
+  </si>
+  <si>
+    <t>APG0241104007</t>
+  </si>
+  <si>
+    <t>Trương Như Ngọc</t>
+  </si>
+  <si>
+    <t>APG1241104007</t>
+  </si>
+  <si>
+    <t>Lê Bá Thịnh</t>
+  </si>
+  <si>
+    <t>APG1241209001</t>
+  </si>
+  <si>
+    <t>Dương Quốc Ngọc</t>
+  </si>
+  <si>
+    <t>APG1241205002</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Du</t>
+  </si>
+  <si>
+    <t>APG1241202001</t>
+  </si>
+  <si>
+    <t>Nguyễn Đăng Trung Hiếu</t>
   </si>
 </sst>
 </file>
@@ -2406,7 +4077,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2487,12 +4158,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2525,9 +4211,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2551,6 +4234,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2833,31 +4522,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D388"/>
+  <dimension ref="A1:D670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A388" sqref="A388"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.21875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="22.28515625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2871,21 +4560,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14">
         <f t="shared" ref="C3:D3" si="0">+SUBTOTAL(9,C4:C322)</f>
         <v>283396.07169811323</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <f t="shared" si="0"/>
         <v>129244</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -2899,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -2913,7 +4602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -2927,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -2941,7 +4630,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -2955,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -2969,7 +4658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -2983,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -2997,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -3011,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -3025,7 +4714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -3039,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
@@ -3053,7 +4742,7 @@
         <v>4437</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
@@ -3067,7 +4756,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -3081,7 +4770,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
@@ -3095,7 +4784,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
@@ -3109,7 +4798,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
@@ -3123,7 +4812,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
@@ -3137,7 +4826,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
@@ -3151,7 +4840,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
@@ -3165,7 +4854,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
@@ -3179,7 +4868,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
@@ -3193,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
@@ -3207,11 +4896,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="4">
@@ -3221,11 +4910,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="4">
@@ -3235,11 +4924,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C29" s="4">
@@ -3249,11 +4938,11 @@
         <v>480</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C30" s="4">
@@ -3263,11 +4952,11 @@
         <v>4296</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C31" s="4">
@@ -3277,11 +4966,11 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C32" s="4">
@@ -3291,11 +4980,11 @@
         <v>605</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C33" s="4">
@@ -3305,11 +4994,11 @@
         <v>6144</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C34" s="4">
@@ -3319,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>67</v>
       </c>
@@ -3333,7 +5022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>69</v>
       </c>
@@ -3347,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>71</v>
       </c>
@@ -3361,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>73</v>
       </c>
@@ -3375,7 +5064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>75</v>
       </c>
@@ -3389,7 +5078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>77</v>
       </c>
@@ -3403,7 +5092,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>79</v>
       </c>
@@ -3417,7 +5106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>81</v>
       </c>
@@ -3431,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>83</v>
       </c>
@@ -3445,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>85</v>
       </c>
@@ -3459,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>87</v>
       </c>
@@ -3473,7 +5162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>89</v>
       </c>
@@ -3487,7 +5176,7 @@
         <v>4553</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>91</v>
       </c>
@@ -3501,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>93</v>
       </c>
@@ -3515,7 +5204,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>95</v>
       </c>
@@ -3529,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>97</v>
       </c>
@@ -3543,7 +5232,7 @@
         <v>2953.9999999999991</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>99</v>
       </c>
@@ -3557,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>101</v>
       </c>
@@ -3571,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>103</v>
       </c>
@@ -3585,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>105</v>
       </c>
@@ -3599,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>107</v>
       </c>
@@ -3613,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>109</v>
       </c>
@@ -3627,7 +5316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>111</v>
       </c>
@@ -3641,7 +5330,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>113</v>
       </c>
@@ -3655,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>115</v>
       </c>
@@ -3669,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>117</v>
       </c>
@@ -3683,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>119</v>
       </c>
@@ -3697,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>121</v>
       </c>
@@ -3711,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>123</v>
       </c>
@@ -3725,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>125</v>
       </c>
@@ -3739,7 +5428,7 @@
         <v>3883</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>127</v>
       </c>
@@ -3753,7 +5442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>129</v>
       </c>
@@ -3767,7 +5456,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>131</v>
       </c>
@@ -3781,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>133</v>
       </c>
@@ -3795,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>135</v>
       </c>
@@ -3809,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>137</v>
       </c>
@@ -3823,7 +5512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>139</v>
       </c>
@@ -3837,7 +5526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>141</v>
       </c>
@@ -3851,7 +5540,7 @@
         <v>4665</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>143</v>
       </c>
@@ -3865,7 +5554,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>145</v>
       </c>
@@ -3879,7 +5568,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>147</v>
       </c>
@@ -3893,7 +5582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>149</v>
       </c>
@@ -3907,7 +5596,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>151</v>
       </c>
@@ -3921,7 +5610,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>153</v>
       </c>
@@ -3935,7 +5624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>155</v>
       </c>
@@ -3949,7 +5638,7 @@
         <v>4943</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>157</v>
       </c>
@@ -3963,7 +5652,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>159</v>
       </c>
@@ -3977,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>161</v>
       </c>
@@ -3991,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>163</v>
       </c>
@@ -4005,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>165</v>
       </c>
@@ -4019,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>167</v>
       </c>
@@ -4033,7 +5722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>169</v>
       </c>
@@ -4047,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>171</v>
       </c>
@@ -4061,7 +5750,7 @@
         <v>3660</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>173</v>
       </c>
@@ -4075,7 +5764,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>175</v>
       </c>
@@ -4089,7 +5778,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>177</v>
       </c>
@@ -4103,7 +5792,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>179</v>
       </c>
@@ -4117,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>181</v>
       </c>
@@ -4131,7 +5820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>183</v>
       </c>
@@ -4145,7 +5834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>185</v>
       </c>
@@ -4159,7 +5848,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>187</v>
       </c>
@@ -4173,7 +5862,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>189</v>
       </c>
@@ -4187,7 +5876,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>191</v>
       </c>
@@ -4201,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>193</v>
       </c>
@@ -4215,7 +5904,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>195</v>
       </c>
@@ -4229,7 +5918,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>197</v>
       </c>
@@ -4243,7 +5932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>199</v>
       </c>
@@ -4257,7 +5946,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>201</v>
       </c>
@@ -4271,7 +5960,7 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>203</v>
       </c>
@@ -4285,7 +5974,7 @@
         <v>7167</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>205</v>
       </c>
@@ -4299,7 +5988,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>207</v>
       </c>
@@ -4313,7 +6002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>209</v>
       </c>
@@ -4327,7 +6016,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>211</v>
       </c>
@@ -4341,15 +6030,15 @@
         <v>5758</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="13" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B108" s="13"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>215</v>
       </c>
@@ -4363,7 +6052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>217</v>
       </c>
@@ -4377,7 +6066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>219</v>
       </c>
@@ -4391,7 +6080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>221</v>
       </c>
@@ -4405,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>223</v>
       </c>
@@ -4419,21 +6108,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="13" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="15">
+      <c r="B114" s="13"/>
+      <c r="C114" s="14">
         <f>+SUBTOTAL(9,C115:C264)</f>
         <v>95185</v>
       </c>
-      <c r="D114" s="15">
+      <c r="D114" s="14">
         <f>+SUBTOTAL(9,D115:D264)</f>
         <v>40029</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>226</v>
       </c>
@@ -4447,7 +6136,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>228</v>
       </c>
@@ -4461,7 +6150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>230</v>
       </c>
@@ -4475,7 +6164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>232</v>
       </c>
@@ -4489,7 +6178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>234</v>
       </c>
@@ -4503,7 +6192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>236</v>
       </c>
@@ -4517,7 +6206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>238</v>
       </c>
@@ -4531,7 +6220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>240</v>
       </c>
@@ -4545,7 +6234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>242</v>
       </c>
@@ -4559,7 +6248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>244</v>
       </c>
@@ -4573,7 +6262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>246</v>
       </c>
@@ -4587,11 +6276,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B126" s="18" t="s">
+      <c r="B126" s="17" t="s">
         <v>249</v>
       </c>
       <c r="C126" s="4">
@@ -4601,11 +6290,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B127" s="18" t="s">
+      <c r="B127" s="17" t="s">
         <v>251</v>
       </c>
       <c r="C127" s="4">
@@ -4615,11 +6304,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B128" s="18" t="s">
+      <c r="B128" s="17" t="s">
         <v>253</v>
       </c>
       <c r="C128" s="4">
@@ -4629,11 +6318,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B129" s="18" t="s">
+      <c r="B129" s="17" t="s">
         <v>255</v>
       </c>
       <c r="C129" s="4">
@@ -4643,11 +6332,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B130" s="18" t="s">
+      <c r="B130" s="17" t="s">
         <v>257</v>
       </c>
       <c r="C130" s="4">
@@ -4657,11 +6346,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B131" s="18" t="s">
+      <c r="B131" s="17" t="s">
         <v>259</v>
       </c>
       <c r="C131" s="4">
@@ -4671,11 +6360,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B132" s="18" t="s">
+      <c r="B132" s="17" t="s">
         <v>261</v>
       </c>
       <c r="C132" s="4">
@@ -4685,11 +6374,11 @@
         <v>530</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B133" s="18" t="s">
+      <c r="B133" s="17" t="s">
         <v>263</v>
       </c>
       <c r="C133" s="4">
@@ -4699,11 +6388,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B134" s="18" t="s">
+      <c r="B134" s="17" t="s">
         <v>265</v>
       </c>
       <c r="C134" s="4">
@@ -4713,11 +6402,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B135" s="18" t="s">
+      <c r="B135" s="17" t="s">
         <v>267</v>
       </c>
       <c r="C135" s="4">
@@ -4727,11 +6416,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B136" s="18" t="s">
+      <c r="B136" s="17" t="s">
         <v>269</v>
       </c>
       <c r="C136" s="4">
@@ -4741,11 +6430,11 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B137" s="18" t="s">
+      <c r="B137" s="17" t="s">
         <v>271</v>
       </c>
       <c r="C137" s="4">
@@ -4755,11 +6444,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B138" s="18" t="s">
+      <c r="B138" s="17" t="s">
         <v>273</v>
       </c>
       <c r="C138" s="4">
@@ -4769,11 +6458,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B139" s="18" t="s">
+      <c r="B139" s="17" t="s">
         <v>275</v>
       </c>
       <c r="C139" s="4">
@@ -4783,11 +6472,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B140" s="18" t="s">
+      <c r="B140" s="17" t="s">
         <v>277</v>
       </c>
       <c r="C140" s="4">
@@ -4797,11 +6486,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B141" s="18" t="s">
+      <c r="B141" s="17" t="s">
         <v>279</v>
       </c>
       <c r="C141" s="4">
@@ -4811,11 +6500,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B142" s="18" t="s">
+      <c r="B142" s="17" t="s">
         <v>281</v>
       </c>
       <c r="C142" s="4">
@@ -4825,11 +6514,11 @@
         <v>289</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B143" s="18" t="s">
+      <c r="B143" s="17" t="s">
         <v>283</v>
       </c>
       <c r="C143" s="4">
@@ -4839,7 +6528,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>284</v>
       </c>
@@ -4853,7 +6542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>286</v>
       </c>
@@ -4867,7 +6556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>288</v>
       </c>
@@ -4881,7 +6570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>290</v>
       </c>
@@ -4895,7 +6584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>292</v>
       </c>
@@ -4909,7 +6598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>294</v>
       </c>
@@ -4923,7 +6612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>296</v>
       </c>
@@ -4937,7 +6626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>298</v>
       </c>
@@ -4951,7 +6640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>300</v>
       </c>
@@ -4965,7 +6654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>302</v>
       </c>
@@ -4979,7 +6668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>304</v>
       </c>
@@ -4993,7 +6682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>306</v>
       </c>
@@ -5007,7 +6696,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>308</v>
       </c>
@@ -5021,7 +6710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>310</v>
       </c>
@@ -5035,7 +6724,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>312</v>
       </c>
@@ -5049,7 +6738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>314</v>
       </c>
@@ -5063,7 +6752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>316</v>
       </c>
@@ -5077,7 +6766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>318</v>
       </c>
@@ -5091,7 +6780,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>320</v>
       </c>
@@ -5105,15 +6794,15 @@
         <v>960</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="13" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="B163" s="14"/>
-      <c r="C163" s="15"/>
-      <c r="D163" s="15"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B163" s="13"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="14"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>323</v>
       </c>
@@ -5127,7 +6816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>325</v>
       </c>
@@ -5141,7 +6830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>327</v>
       </c>
@@ -5155,7 +6844,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>329</v>
       </c>
@@ -5169,7 +6858,7 @@
         <v>4652</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>331</v>
       </c>
@@ -5183,7 +6872,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>333</v>
       </c>
@@ -5197,7 +6886,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>335</v>
       </c>
@@ -5211,7 +6900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>337</v>
       </c>
@@ -5225,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>339</v>
       </c>
@@ -5239,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>341</v>
       </c>
@@ -5253,7 +6942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>342</v>
       </c>
@@ -5267,7 +6956,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>344</v>
       </c>
@@ -5281,7 +6970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>346</v>
       </c>
@@ -5295,7 +6984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>348</v>
       </c>
@@ -5309,7 +6998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>350</v>
       </c>
@@ -5323,7 +7012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>352</v>
       </c>
@@ -5337,7 +7026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>354</v>
       </c>
@@ -5351,7 +7040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>356</v>
       </c>
@@ -5365,7 +7054,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>358</v>
       </c>
@@ -5379,7 +7068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>360</v>
       </c>
@@ -5393,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>362</v>
       </c>
@@ -5407,7 +7096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>364</v>
       </c>
@@ -5421,7 +7110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>366</v>
       </c>
@@ -5435,7 +7124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>368</v>
       </c>
@@ -5449,7 +7138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>370</v>
       </c>
@@ -5463,7 +7152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>372</v>
       </c>
@@ -5477,7 +7166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>374</v>
       </c>
@@ -5491,7 +7180,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>376</v>
       </c>
@@ -5505,7 +7194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>378</v>
       </c>
@@ -5519,7 +7208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>380</v>
       </c>
@@ -5533,7 +7222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>382</v>
       </c>
@@ -5547,7 +7236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>384</v>
       </c>
@@ -5561,7 +7250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>386</v>
       </c>
@@ -5575,7 +7264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>388</v>
       </c>
@@ -5589,7 +7278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>390</v>
       </c>
@@ -5603,7 +7292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>392</v>
       </c>
@@ -5617,7 +7306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>394</v>
       </c>
@@ -5631,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>396</v>
       </c>
@@ -5645,7 +7334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>398</v>
       </c>
@@ -5659,7 +7348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>400</v>
       </c>
@@ -5673,7 +7362,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>402</v>
       </c>
@@ -5687,7 +7376,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>404</v>
       </c>
@@ -5701,7 +7390,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>406</v>
       </c>
@@ -5715,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>408</v>
       </c>
@@ -5729,7 +7418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>410</v>
       </c>
@@ -5743,19 +7432,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A209" s="13" t="s">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="B209" s="14"/>
-      <c r="C209" s="15"/>
-      <c r="D209" s="15"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B209" s="13"/>
+      <c r="C209" s="14"/>
+      <c r="D209" s="14"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="B210" s="19" t="s">
+      <c r="B210" s="18" t="s">
         <v>413</v>
       </c>
       <c r="C210" s="4">
@@ -5765,11 +7454,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="B211" s="19" t="s">
+      <c r="B211" s="18" t="s">
         <v>379</v>
       </c>
       <c r="C211" s="4">
@@ -5779,11 +7468,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="B212" s="19" t="s">
+      <c r="B212" s="18" t="s">
         <v>414</v>
       </c>
       <c r="C212" s="4">
@@ -5793,11 +7482,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="B213" s="19" t="s">
+      <c r="B213" s="18" t="s">
         <v>415</v>
       </c>
       <c r="C213" s="4">
@@ -5807,11 +7496,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="B214" s="19" t="s">
+      <c r="B214" s="18" t="s">
         <v>416</v>
       </c>
       <c r="C214" s="4">
@@ -5821,11 +7510,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="B215" s="19" t="s">
+      <c r="B215" s="18" t="s">
         <v>417</v>
       </c>
       <c r="C215" s="4">
@@ -5835,11 +7524,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="B216" s="19" t="s">
+      <c r="B216" s="18" t="s">
         <v>418</v>
       </c>
       <c r="C216" s="4">
@@ -5849,11 +7538,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="B217" s="19" t="s">
+      <c r="B217" s="18" t="s">
         <v>419</v>
       </c>
       <c r="C217" s="4">
@@ -5863,11 +7552,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="B218" s="19" t="s">
+      <c r="B218" s="18" t="s">
         <v>420</v>
       </c>
       <c r="C218" s="4">
@@ -5877,11 +7566,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="B219" s="19" t="s">
+      <c r="B219" s="18" t="s">
         <v>421</v>
       </c>
       <c r="C219" s="4">
@@ -5891,11 +7580,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="B220" s="19" t="s">
+      <c r="B220" s="18" t="s">
         <v>422</v>
       </c>
       <c r="C220" s="4">
@@ -5905,11 +7594,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="B221" s="19" t="s">
+      <c r="B221" s="18" t="s">
         <v>423</v>
       </c>
       <c r="C221" s="4">
@@ -5919,11 +7608,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="B222" s="19" t="s">
+      <c r="B222" s="18" t="s">
         <v>424</v>
       </c>
       <c r="C222" s="4">
@@ -5933,11 +7622,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="B223" s="19" t="s">
+      <c r="B223" s="18" t="s">
         <v>425</v>
       </c>
       <c r="C223" s="4">
@@ -5947,11 +7636,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="B224" s="19" t="s">
+      <c r="B224" s="18" t="s">
         <v>426</v>
       </c>
       <c r="C224" s="4">
@@ -5961,11 +7650,11 @@
         <v>917</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="B225" s="19" t="s">
+      <c r="B225" s="18" t="s">
         <v>427</v>
       </c>
       <c r="C225" s="4">
@@ -5975,11 +7664,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="B226" s="19" t="s">
+      <c r="B226" s="18" t="s">
         <v>428</v>
       </c>
       <c r="C226" s="4">
@@ -5989,11 +7678,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="B227" s="19" t="s">
+      <c r="B227" s="18" t="s">
         <v>429</v>
       </c>
       <c r="C227" s="4">
@@ -6003,11 +7692,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="B228" s="19" t="s">
+      <c r="B228" s="18" t="s">
         <v>430</v>
       </c>
       <c r="C228" s="4">
@@ -6017,11 +7706,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="B229" s="19" t="s">
+      <c r="B229" s="18" t="s">
         <v>431</v>
       </c>
       <c r="C229" s="4">
@@ -6031,11 +7720,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="B230" s="19" t="s">
+      <c r="B230" s="18" t="s">
         <v>432</v>
       </c>
       <c r="C230" s="4">
@@ -6045,11 +7734,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="B231" s="19" t="s">
+      <c r="B231" s="18" t="s">
         <v>433</v>
       </c>
       <c r="C231" s="4">
@@ -6059,11 +7748,11 @@
         <v>868</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="B232" s="19" t="s">
+      <c r="B232" s="18" t="s">
         <v>434</v>
       </c>
       <c r="C232" s="4">
@@ -6073,11 +7762,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="B233" s="19" t="s">
+      <c r="B233" s="18" t="s">
         <v>435</v>
       </c>
       <c r="C233" s="4">
@@ -6087,11 +7776,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="B234" s="19" t="s">
+      <c r="B234" s="18" t="s">
         <v>436</v>
       </c>
       <c r="C234" s="4">
@@ -6101,11 +7790,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="B235" s="19" t="s">
+      <c r="B235" s="18" t="s">
         <v>437</v>
       </c>
       <c r="C235" s="4">
@@ -6115,11 +7804,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="B236" s="19" t="s">
+      <c r="B236" s="18" t="s">
         <v>438</v>
       </c>
       <c r="C236" s="4">
@@ -6129,11 +7818,11 @@
         <v>4480</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="B237" s="19" t="s">
+      <c r="B237" s="18" t="s">
         <v>439</v>
       </c>
       <c r="C237" s="4">
@@ -6143,11 +7832,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="B238" s="19" t="s">
+      <c r="B238" s="18" t="s">
         <v>440</v>
       </c>
       <c r="C238" s="4">
@@ -6157,11 +7846,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="B239" s="19" t="s">
+      <c r="B239" s="18" t="s">
         <v>441</v>
       </c>
       <c r="C239" s="4">
@@ -6171,11 +7860,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="B240" s="19" t="s">
+      <c r="B240" s="18" t="s">
         <v>442</v>
       </c>
       <c r="C240" s="4">
@@ -6185,11 +7874,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="B241" s="19" t="s">
+      <c r="B241" s="18" t="s">
         <v>443</v>
       </c>
       <c r="C241" s="4">
@@ -6199,11 +7888,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="B242" s="19" t="s">
+      <c r="B242" s="18" t="s">
         <v>444</v>
       </c>
       <c r="C242" s="4">
@@ -6213,11 +7902,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="B243" s="19" t="s">
+      <c r="B243" s="18" t="s">
         <v>445</v>
       </c>
       <c r="C243" s="4">
@@ -6227,11 +7916,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="B244" s="19" t="s">
+      <c r="B244" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C244" s="4">
@@ -6241,11 +7930,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="B245" s="19" t="s">
+      <c r="B245" s="18" t="s">
         <v>447</v>
       </c>
       <c r="C245" s="4">
@@ -6255,11 +7944,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="B246" s="19" t="s">
+      <c r="B246" s="18" t="s">
         <v>448</v>
       </c>
       <c r="C246" s="4">
@@ -6269,11 +7958,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="B247" s="19" t="s">
+      <c r="B247" s="18" t="s">
         <v>449</v>
       </c>
       <c r="C247" s="4">
@@ -6283,15 +7972,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A248" s="13" t="s">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="B248" s="14"/>
-      <c r="C248" s="15"/>
-      <c r="D248" s="15"/>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B248" s="13"/>
+      <c r="C248" s="14"/>
+      <c r="D248" s="14"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>451</v>
       </c>
@@ -6305,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>453</v>
       </c>
@@ -6319,7 +8008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>455</v>
       </c>
@@ -6333,7 +8022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>457</v>
       </c>
@@ -6347,7 +8036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>459</v>
       </c>
@@ -6361,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>461</v>
       </c>
@@ -6375,15 +8064,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A255" s="13" t="s">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="B255" s="14"/>
-      <c r="C255" s="15"/>
-      <c r="D255" s="15"/>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B255" s="13"/>
+      <c r="C255" s="14"/>
+      <c r="D255" s="14"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>464</v>
       </c>
@@ -6397,15 +8086,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A257" s="13" t="s">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="B257" s="14"/>
-      <c r="C257" s="15"/>
-      <c r="D257" s="15"/>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B257" s="13"/>
+      <c r="C257" s="14"/>
+      <c r="D257" s="14"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>467</v>
       </c>
@@ -6419,7 +8108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>469</v>
       </c>
@@ -6433,7 +8122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>471</v>
       </c>
@@ -6447,7 +8136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>473</v>
       </c>
@@ -6461,7 +8150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>475</v>
       </c>
@@ -6475,7 +8164,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>477</v>
       </c>
@@ -6489,7 +8178,7 @@
         <v>6420</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>479</v>
       </c>
@@ -6503,7 +8192,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>481</v>
       </c>
@@ -6517,7 +8206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>483</v>
       </c>
@@ -6531,7 +8220,7 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>485</v>
       </c>
@@ -6545,7 +8234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>487</v>
       </c>
@@ -6559,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>489</v>
       </c>
@@ -6573,7 +8262,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>491</v>
       </c>
@@ -6587,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>493</v>
       </c>
@@ -6601,7 +8290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>495</v>
       </c>
@@ -6615,7 +8304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>497</v>
       </c>
@@ -6629,7 +8318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>499</v>
       </c>
@@ -6643,7 +8332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>501</v>
       </c>
@@ -6657,7 +8346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>503</v>
       </c>
@@ -6671,7 +8360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>505</v>
       </c>
@@ -6685,7 +8374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>507</v>
       </c>
@@ -6699,7 +8388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>509</v>
       </c>
@@ -6713,7 +8402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>511</v>
       </c>
@@ -6727,7 +8416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>513</v>
       </c>
@@ -6741,7 +8430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>515</v>
       </c>
@@ -6755,7 +8444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>517</v>
       </c>
@@ -6769,7 +8458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>519</v>
       </c>
@@ -6783,7 +8472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>520</v>
       </c>
@@ -6797,7 +8486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>522</v>
       </c>
@@ -6811,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>524</v>
       </c>
@@ -6825,7 +8514,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>526</v>
       </c>
@@ -6839,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>528</v>
       </c>
@@ -6853,7 +8542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>530</v>
       </c>
@@ -6867,7 +8556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>532</v>
       </c>
@@ -6881,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>534</v>
       </c>
@@ -6895,7 +8584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>536</v>
       </c>
@@ -6909,7 +8598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>537</v>
       </c>
@@ -6923,7 +8612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>539</v>
       </c>
@@ -6937,7 +8626,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>541</v>
       </c>
@@ -6951,7 +8640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>543</v>
       </c>
@@ -6965,7 +8654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>545</v>
       </c>
@@ -6979,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>547</v>
       </c>
@@ -6993,7 +8682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>549</v>
       </c>
@@ -7007,15 +8696,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A301" s="13" t="s">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="B301" s="14"/>
-      <c r="C301" s="15"/>
-      <c r="D301" s="15"/>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B301" s="13"/>
+      <c r="C301" s="14"/>
+      <c r="D301" s="14"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>552</v>
       </c>
@@ -7029,15 +8718,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A303" s="13" t="s">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="12" t="s">
         <v>613</v>
       </c>
-      <c r="B303" s="14"/>
-      <c r="C303" s="15"/>
-      <c r="D303" s="15"/>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B303" s="13"/>
+      <c r="C303" s="14"/>
+      <c r="D303" s="14"/>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>554</v>
       </c>
@@ -7051,7 +8740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>556</v>
       </c>
@@ -7065,7 +8754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>558</v>
       </c>
@@ -7079,7 +8768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>560</v>
       </c>
@@ -7093,7 +8782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>562</v>
       </c>
@@ -7107,7 +8796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>564</v>
       </c>
@@ -7121,7 +8810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>566</v>
       </c>
@@ -7135,7 +8824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>568</v>
       </c>
@@ -7149,7 +8838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>570</v>
       </c>
@@ -7163,7 +8852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>572</v>
       </c>
@@ -7177,7 +8866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>574</v>
       </c>
@@ -7191,7 +8880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>576</v>
       </c>
@@ -7205,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>578</v>
       </c>
@@ -7219,7 +8908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>580</v>
       </c>
@@ -7233,7 +8922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>582</v>
       </c>
@@ -7247,7 +8936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>584</v>
       </c>
@@ -7261,7 +8950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>586</v>
       </c>
@@ -7275,7 +8964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>588</v>
       </c>
@@ -7289,7 +8978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>590</v>
       </c>
@@ -7303,7 +8992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>592</v>
       </c>
@@ -7317,7 +9006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>594</v>
       </c>
@@ -7331,7 +9020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>596</v>
       </c>
@@ -7345,7 +9034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>598</v>
       </c>
@@ -7359,7 +9048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>600</v>
       </c>
@@ -7373,7 +9062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>602</v>
       </c>
@@ -7387,7 +9076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>604</v>
       </c>
@@ -7401,7 +9090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>605</v>
       </c>
@@ -7415,7 +9104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>607</v>
       </c>
@@ -7429,7 +9118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>609</v>
       </c>
@@ -7443,7 +9132,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>611</v>
       </c>
@@ -7457,15 +9146,15 @@
         <v>960</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A334" s="13" t="s">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="12" t="s">
         <v>755</v>
       </c>
-      <c r="B334" s="14"/>
-      <c r="C334" s="15"/>
-      <c r="D334" s="15"/>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B334" s="13"/>
+      <c r="C334" s="14"/>
+      <c r="D334" s="14"/>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>614</v>
       </c>
@@ -7479,7 +9168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>616</v>
       </c>
@@ -7493,7 +9182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>618</v>
       </c>
@@ -7507,7 +9196,7 @@
         <v>4714</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>620</v>
       </c>
@@ -7521,7 +9210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>622</v>
       </c>
@@ -7535,7 +9224,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>624</v>
       </c>
@@ -7549,7 +9238,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>626</v>
       </c>
@@ -7563,7 +9252,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>628</v>
       </c>
@@ -7577,7 +9266,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>629</v>
       </c>
@@ -7591,7 +9280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>631</v>
       </c>
@@ -7605,7 +9294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>633</v>
       </c>
@@ -7619,7 +9308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>635</v>
       </c>
@@ -7633,7 +9322,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>637</v>
       </c>
@@ -7647,7 +9336,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>639</v>
       </c>
@@ -7661,7 +9350,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>641</v>
       </c>
@@ -7675,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>643</v>
       </c>
@@ -7689,7 +9378,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>645</v>
       </c>
@@ -7703,7 +9392,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>647</v>
       </c>
@@ -7717,7 +9406,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>649</v>
       </c>
@@ -7731,7 +9420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>651</v>
       </c>
@@ -7745,7 +9434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>653</v>
       </c>
@@ -7759,7 +9448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>655</v>
       </c>
@@ -7773,7 +9462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>657</v>
       </c>
@@ -7787,7 +9476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>659</v>
       </c>
@@ -7801,7 +9490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>661</v>
       </c>
@@ -7815,7 +9504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>663</v>
       </c>
@@ -7829,7 +9518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>665</v>
       </c>
@@ -7843,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>667</v>
       </c>
@@ -7857,7 +9546,7 @@
         <v>3781</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>669</v>
       </c>
@@ -7871,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>671</v>
       </c>
@@ -7885,7 +9574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>673</v>
       </c>
@@ -7899,11 +9588,11 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="B366" s="20" t="s">
+      <c r="B366" s="19" t="s">
         <v>676</v>
       </c>
       <c r="C366" s="4">
@@ -7913,7 +9602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>677</v>
       </c>
@@ -7927,11 +9616,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="B368" s="20" t="s">
+      <c r="B368" s="19" t="s">
         <v>680</v>
       </c>
       <c r="C368" s="4">
@@ -7941,7 +9630,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
         <v>681</v>
       </c>
@@ -7955,7 +9644,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
         <v>683</v>
       </c>
@@ -7969,7 +9658,7 @@
         <v>3349</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
         <v>685</v>
       </c>
@@ -7983,7 +9672,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
         <v>687</v>
       </c>
@@ -7997,7 +9686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
         <v>689</v>
       </c>
@@ -8011,7 +9700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
         <v>691</v>
       </c>
@@ -8025,7 +9714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
         <v>693</v>
       </c>
@@ -8039,7 +9728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
         <v>695</v>
       </c>
@@ -8053,7 +9742,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
         <v>697</v>
       </c>
@@ -8067,7 +9756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
         <v>699</v>
       </c>
@@ -8081,7 +9770,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>701</v>
       </c>
@@ -8095,7 +9784,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
         <v>703</v>
       </c>
@@ -8109,7 +9798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
         <v>705</v>
       </c>
@@ -8123,7 +9812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
         <v>707</v>
       </c>
@@ -8137,7 +9826,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
         <v>709</v>
       </c>
@@ -8151,7 +9840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
         <v>711</v>
       </c>
@@ -8165,7 +9854,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
         <v>713</v>
       </c>
@@ -8179,7 +9868,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
         <v>714</v>
       </c>
@@ -8193,15 +9882,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A387" s="13" t="s">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="12" t="s">
         <v>756</v>
       </c>
-      <c r="B387" s="14"/>
-      <c r="C387" s="15"/>
-      <c r="D387" s="15"/>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B387" s="13"/>
+      <c r="C387" s="14"/>
+      <c r="D387" s="14"/>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
         <v>715</v>
       </c>
@@ -8212,6 +9901,3948 @@
         <v>34</v>
       </c>
       <c r="D388" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="B389" s="13"/>
+      <c r="C389" s="14"/>
+      <c r="D389" s="14"/>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="21" t="s">
+        <v>758</v>
+      </c>
+      <c r="B390" s="21" t="s">
+        <v>759</v>
+      </c>
+      <c r="C390" s="21">
+        <v>5614</v>
+      </c>
+      <c r="D390" s="21">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="21" t="s">
+        <v>760</v>
+      </c>
+      <c r="B391" s="21" t="s">
+        <v>761</v>
+      </c>
+      <c r="C391" s="21">
+        <v>3444</v>
+      </c>
+      <c r="D391" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="B392" s="21" t="s">
+        <v>763</v>
+      </c>
+      <c r="C392" s="21">
+        <v>2581</v>
+      </c>
+      <c r="D392" s="21">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="21" t="s">
+        <v>764</v>
+      </c>
+      <c r="B393" s="21" t="s">
+        <v>765</v>
+      </c>
+      <c r="C393" s="21">
+        <v>745</v>
+      </c>
+      <c r="D393" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="21" t="s">
+        <v>766</v>
+      </c>
+      <c r="B394" s="21" t="s">
+        <v>767</v>
+      </c>
+      <c r="C394" s="21">
+        <v>1203</v>
+      </c>
+      <c r="D394" s="21">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="B395" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="C395" s="21">
+        <v>1199</v>
+      </c>
+      <c r="D395" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="B396" s="21" t="s">
+        <v>771</v>
+      </c>
+      <c r="C396" s="21">
+        <v>1741</v>
+      </c>
+      <c r="D396" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="21" t="s">
+        <v>772</v>
+      </c>
+      <c r="B397" s="21" t="s">
+        <v>773</v>
+      </c>
+      <c r="C397" s="21">
+        <v>971</v>
+      </c>
+      <c r="D397" s="21">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="B398" s="21" t="s">
+        <v>775</v>
+      </c>
+      <c r="C398" s="21">
+        <v>3894</v>
+      </c>
+      <c r="D398" s="21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="21" t="s">
+        <v>776</v>
+      </c>
+      <c r="B399" s="21" t="s">
+        <v>777</v>
+      </c>
+      <c r="C399" s="21">
+        <v>4019</v>
+      </c>
+      <c r="D399" s="21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="21" t="s">
+        <v>778</v>
+      </c>
+      <c r="B400" s="21" t="s">
+        <v>779</v>
+      </c>
+      <c r="C400" s="21">
+        <v>3363</v>
+      </c>
+      <c r="D400" s="21">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" s="21" t="s">
+        <v>780</v>
+      </c>
+      <c r="B401" s="21" t="s">
+        <v>781</v>
+      </c>
+      <c r="C401" s="21">
+        <v>2182</v>
+      </c>
+      <c r="D401" s="21">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" s="21" t="s">
+        <v>782</v>
+      </c>
+      <c r="B402" s="21" t="s">
+        <v>783</v>
+      </c>
+      <c r="C402" s="21">
+        <v>3828</v>
+      </c>
+      <c r="D402" s="21">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="B403" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="C403" s="21">
+        <v>783</v>
+      </c>
+      <c r="D403" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" s="21" t="s">
+        <v>786</v>
+      </c>
+      <c r="B404" s="21" t="s">
+        <v>787</v>
+      </c>
+      <c r="C404" s="21">
+        <v>3360</v>
+      </c>
+      <c r="D404" s="21">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" s="21" t="s">
+        <v>788</v>
+      </c>
+      <c r="B405" s="21" t="s">
+        <v>789</v>
+      </c>
+      <c r="C405" s="21">
+        <v>6240</v>
+      </c>
+      <c r="D405" s="21">
+        <v>5230</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" s="21" t="s">
+        <v>790</v>
+      </c>
+      <c r="B406" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="C406" s="21">
+        <v>1755</v>
+      </c>
+      <c r="D406" s="21">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" s="21" t="s">
+        <v>792</v>
+      </c>
+      <c r="B407" s="21" t="s">
+        <v>793</v>
+      </c>
+      <c r="C407" s="21">
+        <v>1623</v>
+      </c>
+      <c r="D407" s="21">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" s="21" t="s">
+        <v>794</v>
+      </c>
+      <c r="B408" s="21" t="s">
+        <v>795</v>
+      </c>
+      <c r="C408" s="21">
+        <v>2586</v>
+      </c>
+      <c r="D408" s="21">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" s="21" t="s">
+        <v>796</v>
+      </c>
+      <c r="B409" s="21" t="s">
+        <v>797</v>
+      </c>
+      <c r="C409" s="21">
+        <v>4080</v>
+      </c>
+      <c r="D409" s="21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="B410" s="21" t="s">
+        <v>799</v>
+      </c>
+      <c r="C410" s="21">
+        <v>4506</v>
+      </c>
+      <c r="D410" s="21">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" s="21" t="s">
+        <v>800</v>
+      </c>
+      <c r="B411" s="21" t="s">
+        <v>801</v>
+      </c>
+      <c r="C411" s="21">
+        <v>5465</v>
+      </c>
+      <c r="D411" s="21">
+        <v>4629</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" s="21" t="s">
+        <v>802</v>
+      </c>
+      <c r="B412" s="21" t="s">
+        <v>803</v>
+      </c>
+      <c r="C412" s="21">
+        <v>5714</v>
+      </c>
+      <c r="D412" s="21">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" s="21" t="s">
+        <v>804</v>
+      </c>
+      <c r="B413" s="21" t="s">
+        <v>805</v>
+      </c>
+      <c r="C413" s="21">
+        <v>5734</v>
+      </c>
+      <c r="D413" s="21">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" s="21" t="s">
+        <v>806</v>
+      </c>
+      <c r="B414" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="C414" s="21">
+        <v>1193</v>
+      </c>
+      <c r="D414" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" s="21" t="s">
+        <v>808</v>
+      </c>
+      <c r="B415" s="21" t="s">
+        <v>809</v>
+      </c>
+      <c r="C415" s="21">
+        <v>3481</v>
+      </c>
+      <c r="D415" s="21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" s="21" t="s">
+        <v>810</v>
+      </c>
+      <c r="B416" s="21" t="s">
+        <v>811</v>
+      </c>
+      <c r="C416" s="21">
+        <v>3762</v>
+      </c>
+      <c r="D416" s="21">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" s="21" t="s">
+        <v>812</v>
+      </c>
+      <c r="B417" s="21" t="s">
+        <v>813</v>
+      </c>
+      <c r="C417" s="21">
+        <v>3763</v>
+      </c>
+      <c r="D417" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" s="21" t="s">
+        <v>814</v>
+      </c>
+      <c r="B418" s="21" t="s">
+        <v>815</v>
+      </c>
+      <c r="C418" s="21">
+        <v>1277</v>
+      </c>
+      <c r="D418" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" s="21" t="s">
+        <v>816</v>
+      </c>
+      <c r="B419" s="21" t="s">
+        <v>817</v>
+      </c>
+      <c r="C419" s="21">
+        <v>3763</v>
+      </c>
+      <c r="D419" s="21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" s="21" t="s">
+        <v>818</v>
+      </c>
+      <c r="B420" s="21" t="s">
+        <v>819</v>
+      </c>
+      <c r="C420" s="21">
+        <v>5683</v>
+      </c>
+      <c r="D420" s="21">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" s="21" t="s">
+        <v>820</v>
+      </c>
+      <c r="B421" s="21" t="s">
+        <v>821</v>
+      </c>
+      <c r="C421" s="21">
+        <v>3575</v>
+      </c>
+      <c r="D421" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" s="21" t="s">
+        <v>822</v>
+      </c>
+      <c r="B422" s="21" t="s">
+        <v>823</v>
+      </c>
+      <c r="C422" s="21">
+        <v>6049</v>
+      </c>
+      <c r="D422" s="21">
+        <v>11713</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" s="21" t="s">
+        <v>824</v>
+      </c>
+      <c r="B423" s="21" t="s">
+        <v>825</v>
+      </c>
+      <c r="C423" s="21">
+        <v>1854</v>
+      </c>
+      <c r="D423" s="21">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" s="21" t="s">
+        <v>826</v>
+      </c>
+      <c r="B424" s="21" t="s">
+        <v>827</v>
+      </c>
+      <c r="C424" s="21">
+        <v>1562</v>
+      </c>
+      <c r="D424" s="21">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" s="21" t="s">
+        <v>828</v>
+      </c>
+      <c r="B425" s="21" t="s">
+        <v>829</v>
+      </c>
+      <c r="C425" s="21">
+        <v>4739</v>
+      </c>
+      <c r="D425" s="21">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" s="21" t="s">
+        <v>830</v>
+      </c>
+      <c r="B426" s="21" t="s">
+        <v>831</v>
+      </c>
+      <c r="C426" s="21">
+        <v>3219</v>
+      </c>
+      <c r="D426" s="21">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" s="21" t="s">
+        <v>832</v>
+      </c>
+      <c r="B427" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C427" s="21">
+        <v>960</v>
+      </c>
+      <c r="D427" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="21" t="s">
+        <v>833</v>
+      </c>
+      <c r="B428" s="21" t="s">
+        <v>834</v>
+      </c>
+      <c r="C428" s="21">
+        <v>5405</v>
+      </c>
+      <c r="D428" s="21">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="21" t="s">
+        <v>835</v>
+      </c>
+      <c r="B429" s="21" t="s">
+        <v>836</v>
+      </c>
+      <c r="C429" s="21">
+        <v>1164</v>
+      </c>
+      <c r="D429" s="21">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="21" t="s">
+        <v>837</v>
+      </c>
+      <c r="B430" s="21" t="s">
+        <v>838</v>
+      </c>
+      <c r="C430" s="21">
+        <v>3735</v>
+      </c>
+      <c r="D430" s="21">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="B431" s="21" t="s">
+        <v>840</v>
+      </c>
+      <c r="C431" s="21">
+        <v>5726</v>
+      </c>
+      <c r="D431" s="21">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="21" t="s">
+        <v>841</v>
+      </c>
+      <c r="B432" s="21" t="s">
+        <v>842</v>
+      </c>
+      <c r="C432" s="21">
+        <v>741</v>
+      </c>
+      <c r="D432" s="21">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" s="21" t="s">
+        <v>843</v>
+      </c>
+      <c r="B433" s="21" t="s">
+        <v>844</v>
+      </c>
+      <c r="C433" s="21">
+        <v>4767</v>
+      </c>
+      <c r="D433" s="21">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" s="21" t="s">
+        <v>845</v>
+      </c>
+      <c r="B434" s="21" t="s">
+        <v>846</v>
+      </c>
+      <c r="C434" s="21">
+        <v>5545</v>
+      </c>
+      <c r="D434" s="21">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" s="21" t="s">
+        <v>847</v>
+      </c>
+      <c r="B435" s="21" t="s">
+        <v>848</v>
+      </c>
+      <c r="C435" s="21">
+        <v>5082</v>
+      </c>
+      <c r="D435" s="21">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" s="21" t="s">
+        <v>849</v>
+      </c>
+      <c r="B436" s="21" t="s">
+        <v>850</v>
+      </c>
+      <c r="C436" s="21">
+        <v>2890</v>
+      </c>
+      <c r="D436" s="21">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" s="21" t="s">
+        <v>851</v>
+      </c>
+      <c r="B437" s="21" t="s">
+        <v>852</v>
+      </c>
+      <c r="C437" s="21">
+        <v>5632</v>
+      </c>
+      <c r="D437" s="21">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" s="21" t="s">
+        <v>853</v>
+      </c>
+      <c r="B438" s="21" t="s">
+        <v>854</v>
+      </c>
+      <c r="C438" s="21">
+        <v>4917</v>
+      </c>
+      <c r="D438" s="21">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" s="21" t="s">
+        <v>855</v>
+      </c>
+      <c r="B439" s="21" t="s">
+        <v>856</v>
+      </c>
+      <c r="C439" s="21">
+        <v>4916</v>
+      </c>
+      <c r="D439" s="21">
+        <v>4048</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" s="21" t="s">
+        <v>857</v>
+      </c>
+      <c r="B440" s="21" t="s">
+        <v>858</v>
+      </c>
+      <c r="C440" s="21">
+        <v>5000</v>
+      </c>
+      <c r="D440" s="21">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" s="21" t="s">
+        <v>859</v>
+      </c>
+      <c r="B441" s="21" t="s">
+        <v>860</v>
+      </c>
+      <c r="C441" s="21">
+        <v>5160</v>
+      </c>
+      <c r="D441" s="21">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" s="21" t="s">
+        <v>861</v>
+      </c>
+      <c r="B442" s="21" t="s">
+        <v>862</v>
+      </c>
+      <c r="C442" s="21">
+        <v>568</v>
+      </c>
+      <c r="D442" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" s="21" t="s">
+        <v>863</v>
+      </c>
+      <c r="B443" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="C443" s="21">
+        <v>2879</v>
+      </c>
+      <c r="D443" s="21">
+        <v>5628</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" s="21" t="s">
+        <v>865</v>
+      </c>
+      <c r="B444" s="21" t="s">
+        <v>866</v>
+      </c>
+      <c r="C444" s="21">
+        <v>5040</v>
+      </c>
+      <c r="D444" s="21">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" s="21" t="s">
+        <v>867</v>
+      </c>
+      <c r="B445" s="21" t="s">
+        <v>868</v>
+      </c>
+      <c r="C445" s="21">
+        <v>61</v>
+      </c>
+      <c r="D445" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" s="21" t="s">
+        <v>869</v>
+      </c>
+      <c r="B446" s="21" t="s">
+        <v>870</v>
+      </c>
+      <c r="C446" s="21">
+        <v>3972</v>
+      </c>
+      <c r="D446" s="21">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" s="21" t="s">
+        <v>871</v>
+      </c>
+      <c r="B447" s="21" t="s">
+        <v>872</v>
+      </c>
+      <c r="C447" s="21">
+        <v>5167</v>
+      </c>
+      <c r="D447" s="21">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" s="21" t="s">
+        <v>873</v>
+      </c>
+      <c r="B448" s="21" t="s">
+        <v>874</v>
+      </c>
+      <c r="C448" s="21">
+        <v>622</v>
+      </c>
+      <c r="D448" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449" s="21" t="s">
+        <v>875</v>
+      </c>
+      <c r="B449" s="21" t="s">
+        <v>876</v>
+      </c>
+      <c r="C449" s="21">
+        <v>4703</v>
+      </c>
+      <c r="D449" s="21">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450" s="21" t="s">
+        <v>877</v>
+      </c>
+      <c r="B450" s="21" t="s">
+        <v>878</v>
+      </c>
+      <c r="C450" s="21">
+        <v>615</v>
+      </c>
+      <c r="D450" s="21">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" s="21" t="s">
+        <v>879</v>
+      </c>
+      <c r="B451" s="21" t="s">
+        <v>880</v>
+      </c>
+      <c r="C451" s="21">
+        <v>3296</v>
+      </c>
+      <c r="D451" s="21">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452" s="21" t="s">
+        <v>881</v>
+      </c>
+      <c r="B452" s="21" t="s">
+        <v>882</v>
+      </c>
+      <c r="C452" s="21">
+        <v>2720</v>
+      </c>
+      <c r="D452" s="21">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453" s="21" t="s">
+        <v>883</v>
+      </c>
+      <c r="B453" s="21" t="s">
+        <v>884</v>
+      </c>
+      <c r="C453" s="21">
+        <v>1607</v>
+      </c>
+      <c r="D453" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454" s="21" t="s">
+        <v>885</v>
+      </c>
+      <c r="B454" s="21" t="s">
+        <v>886</v>
+      </c>
+      <c r="C454" s="21">
+        <v>1534</v>
+      </c>
+      <c r="D454" s="21">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455" s="21" t="s">
+        <v>887</v>
+      </c>
+      <c r="B455" s="21" t="s">
+        <v>888</v>
+      </c>
+      <c r="C455" s="21">
+        <v>1392</v>
+      </c>
+      <c r="D455" s="21">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456" s="21" t="s">
+        <v>889</v>
+      </c>
+      <c r="B456" s="21" t="s">
+        <v>890</v>
+      </c>
+      <c r="C456" s="21">
+        <v>856</v>
+      </c>
+      <c r="D456" s="21">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457" s="21" t="s">
+        <v>891</v>
+      </c>
+      <c r="B457" s="21" t="s">
+        <v>892</v>
+      </c>
+      <c r="C457" s="21">
+        <v>381</v>
+      </c>
+      <c r="D457" s="21">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458" s="21" t="s">
+        <v>893</v>
+      </c>
+      <c r="B458" s="21" t="s">
+        <v>894</v>
+      </c>
+      <c r="C458" s="21">
+        <v>1534</v>
+      </c>
+      <c r="D458" s="21">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459" s="21" t="s">
+        <v>895</v>
+      </c>
+      <c r="B459" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="C459" s="21">
+        <v>1403</v>
+      </c>
+      <c r="D459" s="21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460" s="21" t="s">
+        <v>897</v>
+      </c>
+      <c r="B460" s="21" t="s">
+        <v>898</v>
+      </c>
+      <c r="C460" s="21">
+        <v>6192</v>
+      </c>
+      <c r="D460" s="21">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461" s="21" t="s">
+        <v>899</v>
+      </c>
+      <c r="B461" s="21" t="s">
+        <v>900</v>
+      </c>
+      <c r="C461" s="21">
+        <v>4683</v>
+      </c>
+      <c r="D461" s="21">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462" s="21" t="s">
+        <v>901</v>
+      </c>
+      <c r="B462" s="21" t="s">
+        <v>902</v>
+      </c>
+      <c r="C462" s="21">
+        <v>1197</v>
+      </c>
+      <c r="D462" s="21">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463" s="21" t="s">
+        <v>903</v>
+      </c>
+      <c r="B463" s="21" t="s">
+        <v>904</v>
+      </c>
+      <c r="C463" s="21">
+        <v>2079</v>
+      </c>
+      <c r="D463" s="21">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464" s="21" t="s">
+        <v>905</v>
+      </c>
+      <c r="B464" s="21" t="s">
+        <v>906</v>
+      </c>
+      <c r="C464" s="21">
+        <v>590</v>
+      </c>
+      <c r="D464" s="21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465" s="21" t="s">
+        <v>907</v>
+      </c>
+      <c r="B465" s="21" t="s">
+        <v>908</v>
+      </c>
+      <c r="C465" s="21">
+        <v>2109</v>
+      </c>
+      <c r="D465" s="21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" s="21" t="s">
+        <v>909</v>
+      </c>
+      <c r="B466" s="21" t="s">
+        <v>910</v>
+      </c>
+      <c r="C466" s="21">
+        <v>5086</v>
+      </c>
+      <c r="D466" s="21">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467" s="21" t="s">
+        <v>911</v>
+      </c>
+      <c r="B467" s="21" t="s">
+        <v>912</v>
+      </c>
+      <c r="C467" s="21">
+        <v>543</v>
+      </c>
+      <c r="D467" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" s="21" t="s">
+        <v>913</v>
+      </c>
+      <c r="B468" s="21" t="s">
+        <v>914</v>
+      </c>
+      <c r="C468" s="21">
+        <v>4267</v>
+      </c>
+      <c r="D468" s="21">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" s="21" t="s">
+        <v>915</v>
+      </c>
+      <c r="B469" s="21" t="s">
+        <v>916</v>
+      </c>
+      <c r="C469" s="21">
+        <v>2308</v>
+      </c>
+      <c r="D469" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" s="21" t="s">
+        <v>917</v>
+      </c>
+      <c r="B470" s="21" t="s">
+        <v>918</v>
+      </c>
+      <c r="C470" s="21">
+        <v>375</v>
+      </c>
+      <c r="D470" s="21">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" s="21" t="s">
+        <v>919</v>
+      </c>
+      <c r="B471" s="21" t="s">
+        <v>920</v>
+      </c>
+      <c r="C471" s="21">
+        <v>228</v>
+      </c>
+      <c r="D471" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" s="21" t="s">
+        <v>921</v>
+      </c>
+      <c r="B472" s="21" t="s">
+        <v>922</v>
+      </c>
+      <c r="C472" s="21">
+        <v>170</v>
+      </c>
+      <c r="D472" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" s="21" t="s">
+        <v>923</v>
+      </c>
+      <c r="B473" s="21" t="s">
+        <v>924</v>
+      </c>
+      <c r="C473" s="21">
+        <v>3128</v>
+      </c>
+      <c r="D473" s="21">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" s="21" t="s">
+        <v>925</v>
+      </c>
+      <c r="B474" s="21" t="s">
+        <v>926</v>
+      </c>
+      <c r="C474" s="21">
+        <v>4257</v>
+      </c>
+      <c r="D474" s="21">
+        <v>4159</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="B475" s="21" t="s">
+        <v>928</v>
+      </c>
+      <c r="C475" s="21">
+        <v>5158</v>
+      </c>
+      <c r="D475" s="21">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="B476" s="21" t="s">
+        <v>930</v>
+      </c>
+      <c r="C476" s="21">
+        <v>3363</v>
+      </c>
+      <c r="D476" s="21">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" s="21" t="s">
+        <v>931</v>
+      </c>
+      <c r="B477" s="21" t="s">
+        <v>932</v>
+      </c>
+      <c r="C477" s="21">
+        <v>1204</v>
+      </c>
+      <c r="D477" s="21">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" s="21" t="s">
+        <v>933</v>
+      </c>
+      <c r="B478" s="21" t="s">
+        <v>934</v>
+      </c>
+      <c r="C478" s="21">
+        <v>2152</v>
+      </c>
+      <c r="D478" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" s="21" t="s">
+        <v>935</v>
+      </c>
+      <c r="B479" s="21" t="s">
+        <v>936</v>
+      </c>
+      <c r="C479" s="21">
+        <v>3919</v>
+      </c>
+      <c r="D479" s="21">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" s="21" t="s">
+        <v>937</v>
+      </c>
+      <c r="B480" s="21" t="s">
+        <v>938</v>
+      </c>
+      <c r="C480" s="21">
+        <v>1585</v>
+      </c>
+      <c r="D480" s="21">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" s="21" t="s">
+        <v>939</v>
+      </c>
+      <c r="B481" s="21" t="s">
+        <v>940</v>
+      </c>
+      <c r="C481" s="21">
+        <v>4059</v>
+      </c>
+      <c r="D481" s="21">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" s="21" t="s">
+        <v>941</v>
+      </c>
+      <c r="B482" s="21" t="s">
+        <v>942</v>
+      </c>
+      <c r="C482" s="21">
+        <v>1564</v>
+      </c>
+      <c r="D482" s="21">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483" s="21" t="s">
+        <v>943</v>
+      </c>
+      <c r="B483" s="21" t="s">
+        <v>944</v>
+      </c>
+      <c r="C483" s="21">
+        <v>4258</v>
+      </c>
+      <c r="D483" s="21">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" s="21" t="s">
+        <v>945</v>
+      </c>
+      <c r="B484" s="21" t="s">
+        <v>946</v>
+      </c>
+      <c r="C484" s="21">
+        <v>3180</v>
+      </c>
+      <c r="D484" s="21">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" s="21" t="s">
+        <v>947</v>
+      </c>
+      <c r="B485" s="21" t="s">
+        <v>948</v>
+      </c>
+      <c r="C485" s="21">
+        <v>2632</v>
+      </c>
+      <c r="D485" s="21">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" s="21" t="s">
+        <v>949</v>
+      </c>
+      <c r="B486" s="21" t="s">
+        <v>950</v>
+      </c>
+      <c r="C486" s="21">
+        <v>359</v>
+      </c>
+      <c r="D486" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" s="21" t="s">
+        <v>951</v>
+      </c>
+      <c r="B487" s="21" t="s">
+        <v>952</v>
+      </c>
+      <c r="C487" s="21">
+        <v>3018</v>
+      </c>
+      <c r="D487" s="21">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" s="21" t="s">
+        <v>953</v>
+      </c>
+      <c r="B488" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="C488" s="21">
+        <v>2998</v>
+      </c>
+      <c r="D488" s="21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" s="21" t="s">
+        <v>954</v>
+      </c>
+      <c r="B489" s="21" t="s">
+        <v>955</v>
+      </c>
+      <c r="C489" s="21">
+        <v>2704</v>
+      </c>
+      <c r="D489" s="21">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" s="21" t="s">
+        <v>956</v>
+      </c>
+      <c r="B490" s="21" t="s">
+        <v>957</v>
+      </c>
+      <c r="C490" s="21">
+        <v>2164</v>
+      </c>
+      <c r="D490" s="21">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" s="21" t="s">
+        <v>958</v>
+      </c>
+      <c r="B491" s="21" t="s">
+        <v>959</v>
+      </c>
+      <c r="C491" s="21">
+        <v>3840</v>
+      </c>
+      <c r="D491" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" s="21" t="s">
+        <v>960</v>
+      </c>
+      <c r="B492" s="21" t="s">
+        <v>961</v>
+      </c>
+      <c r="C492" s="21">
+        <v>925</v>
+      </c>
+      <c r="D492" s="21">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" s="21" t="s">
+        <v>962</v>
+      </c>
+      <c r="B493" s="21" t="s">
+        <v>963</v>
+      </c>
+      <c r="C493" s="21">
+        <v>2934</v>
+      </c>
+      <c r="D493" s="21">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494" s="21" t="s">
+        <v>964</v>
+      </c>
+      <c r="B494" s="21" t="s">
+        <v>965</v>
+      </c>
+      <c r="C494" s="21">
+        <v>5455</v>
+      </c>
+      <c r="D494" s="21">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495" s="21" t="s">
+        <v>966</v>
+      </c>
+      <c r="B495" s="21" t="s">
+        <v>967</v>
+      </c>
+      <c r="C495" s="21">
+        <v>4391</v>
+      </c>
+      <c r="D495" s="21">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496" s="21" t="s">
+        <v>968</v>
+      </c>
+      <c r="B496" s="21" t="s">
+        <v>969</v>
+      </c>
+      <c r="C496" s="21">
+        <v>127</v>
+      </c>
+      <c r="D496" s="21">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497" s="21" t="s">
+        <v>970</v>
+      </c>
+      <c r="B497" s="21" t="s">
+        <v>971</v>
+      </c>
+      <c r="C497" s="21">
+        <v>4320</v>
+      </c>
+      <c r="D497" s="21">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498" s="21" t="s">
+        <v>972</v>
+      </c>
+      <c r="B498" s="21" t="s">
+        <v>973</v>
+      </c>
+      <c r="C498" s="21">
+        <v>3393</v>
+      </c>
+      <c r="D498" s="21">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499" s="21" t="s">
+        <v>974</v>
+      </c>
+      <c r="B499" s="21" t="s">
+        <v>975</v>
+      </c>
+      <c r="C499" s="21">
+        <v>3436</v>
+      </c>
+      <c r="D499" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A500" s="21" t="s">
+        <v>976</v>
+      </c>
+      <c r="B500" s="21" t="s">
+        <v>977</v>
+      </c>
+      <c r="C500" s="21">
+        <v>3840</v>
+      </c>
+      <c r="D500" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A501" s="21" t="s">
+        <v>978</v>
+      </c>
+      <c r="B501" s="21" t="s">
+        <v>979</v>
+      </c>
+      <c r="C501" s="21">
+        <v>1550</v>
+      </c>
+      <c r="D501" s="21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502" s="21" t="s">
+        <v>980</v>
+      </c>
+      <c r="B502" s="21" t="s">
+        <v>981</v>
+      </c>
+      <c r="C502" s="21">
+        <v>4981</v>
+      </c>
+      <c r="D502" s="21">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503" s="21" t="s">
+        <v>982</v>
+      </c>
+      <c r="B503" s="21" t="s">
+        <v>983</v>
+      </c>
+      <c r="C503" s="21">
+        <v>4646</v>
+      </c>
+      <c r="D503" s="21">
+        <v>5016</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504" s="21" t="s">
+        <v>984</v>
+      </c>
+      <c r="B504" s="21" t="s">
+        <v>985</v>
+      </c>
+      <c r="C504" s="21">
+        <v>3802</v>
+      </c>
+      <c r="D504" s="21">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A505" s="21" t="s">
+        <v>986</v>
+      </c>
+      <c r="B505" s="21" t="s">
+        <v>987</v>
+      </c>
+      <c r="C505" s="21">
+        <v>4780</v>
+      </c>
+      <c r="D505" s="21">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506" s="21" t="s">
+        <v>988</v>
+      </c>
+      <c r="B506" s="21" t="s">
+        <v>989</v>
+      </c>
+      <c r="C506" s="21">
+        <v>5542</v>
+      </c>
+      <c r="D506" s="21">
+        <v>4564</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A507" s="21" t="s">
+        <v>990</v>
+      </c>
+      <c r="B507" s="21" t="s">
+        <v>991</v>
+      </c>
+      <c r="C507" s="21">
+        <v>4536</v>
+      </c>
+      <c r="D507" s="21">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508" s="21" t="s">
+        <v>992</v>
+      </c>
+      <c r="B508" s="21" t="s">
+        <v>993</v>
+      </c>
+      <c r="C508" s="21">
+        <v>2834</v>
+      </c>
+      <c r="D508" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509" s="21" t="s">
+        <v>994</v>
+      </c>
+      <c r="B509" s="21" t="s">
+        <v>995</v>
+      </c>
+      <c r="C509" s="21">
+        <v>5760</v>
+      </c>
+      <c r="D509" s="21">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510" s="21" t="s">
+        <v>996</v>
+      </c>
+      <c r="B510" s="21" t="s">
+        <v>997</v>
+      </c>
+      <c r="C510" s="21">
+        <v>2400</v>
+      </c>
+      <c r="D510" s="21">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A511" s="21" t="s">
+        <v>998</v>
+      </c>
+      <c r="B511" s="21" t="s">
+        <v>999</v>
+      </c>
+      <c r="C511" s="21">
+        <v>1920</v>
+      </c>
+      <c r="D511" s="21">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A512" s="21" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B512" s="21" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C512" s="21">
+        <v>4896</v>
+      </c>
+      <c r="D512" s="21">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A513" s="21" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B513" s="21" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C513" s="21">
+        <v>196</v>
+      </c>
+      <c r="D513" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A514" s="21" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B514" s="21" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C514" s="21">
+        <v>3309</v>
+      </c>
+      <c r="D514" s="21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515" s="21" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B515" s="21" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C515" s="21">
+        <v>3641</v>
+      </c>
+      <c r="D515" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A516" s="21" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B516" s="21" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C516" s="21">
+        <v>132</v>
+      </c>
+      <c r="D516" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A517" s="21" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B517" s="21" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C517" s="21">
+        <v>1920</v>
+      </c>
+      <c r="D517" s="21">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A518" s="21" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B518" s="21" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C518" s="21">
+        <v>1332</v>
+      </c>
+      <c r="D518" s="21">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A519" s="21" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B519" s="21" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C519" s="21">
+        <v>5729</v>
+      </c>
+      <c r="D519" s="21">
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520" s="21" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B520" s="21" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C520" s="21">
+        <v>5479</v>
+      </c>
+      <c r="D520" s="21">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521" s="21" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B521" s="21" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C521" s="21">
+        <v>959</v>
+      </c>
+      <c r="D521" s="21">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A522" s="21" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B522" s="21" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C522" s="21">
+        <v>606</v>
+      </c>
+      <c r="D522" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523" s="21" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B523" s="21" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C523" s="21">
+        <v>5760</v>
+      </c>
+      <c r="D523" s="21">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524" s="21" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B524" s="21" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C524" s="21">
+        <v>2554</v>
+      </c>
+      <c r="D524" s="21">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525" s="21" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B525" s="21" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C525" s="21">
+        <v>399</v>
+      </c>
+      <c r="D525" s="21">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526" s="21" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B526" s="21" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C526" s="21">
+        <v>6132</v>
+      </c>
+      <c r="D526" s="21">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527" s="21" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B527" s="21" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C527" s="21">
+        <v>4986</v>
+      </c>
+      <c r="D527" s="21">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A528" s="21" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B528" s="21" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C528" s="21">
+        <v>5175</v>
+      </c>
+      <c r="D528" s="21">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A529" s="21" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B529" s="21" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C529" s="21">
+        <v>991</v>
+      </c>
+      <c r="D529" s="21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A530" s="21" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B530" s="21" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C530" s="21">
+        <v>317</v>
+      </c>
+      <c r="D530" s="21">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A531" s="21" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B531" s="21" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C531" s="21">
+        <v>5760</v>
+      </c>
+      <c r="D531" s="21">
+        <v>7168</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A532" s="21" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B532" s="21" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C532" s="21">
+        <v>5760</v>
+      </c>
+      <c r="D532" s="21">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533" s="21" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B533" s="21" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C533" s="21">
+        <v>2494</v>
+      </c>
+      <c r="D533" s="21">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534" s="21" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B534" s="21" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C534" s="21">
+        <v>6240</v>
+      </c>
+      <c r="D534" s="21">
+        <v>7285</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A535" s="21" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B535" s="21" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C535" s="21">
+        <v>5760</v>
+      </c>
+      <c r="D535" s="21">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536" s="21" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B536" s="21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C536" s="21">
+        <v>5712</v>
+      </c>
+      <c r="D536" s="21">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537" s="21" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B537" s="21" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C537" s="21">
+        <v>1312</v>
+      </c>
+      <c r="D537" s="21">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538" s="21" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B538" s="21" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C538" s="21">
+        <v>2208</v>
+      </c>
+      <c r="D538" s="21">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A539" s="21" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B539" s="21" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C539" s="21">
+        <v>5529</v>
+      </c>
+      <c r="D539" s="21">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540" s="21" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B540" s="21" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C540" s="21">
+        <v>4410</v>
+      </c>
+      <c r="D540" s="21">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541" s="21" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B541" s="21" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C541" s="21">
+        <v>3591</v>
+      </c>
+      <c r="D541" s="21">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A542" s="21" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B542" s="21" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C542" s="21">
+        <v>-4</v>
+      </c>
+      <c r="D542" s="21">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543" s="21" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B543" s="21" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C543" s="21">
+        <v>6348</v>
+      </c>
+      <c r="D543" s="21">
+        <v>9482</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544" s="21" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B544" s="21" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C544" s="21">
+        <v>420</v>
+      </c>
+      <c r="D544" s="21">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A545" s="21" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B545" s="21" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C545" s="21">
+        <v>1634</v>
+      </c>
+      <c r="D545" s="21">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A546" s="21" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B546" s="21" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C546" s="21">
+        <v>4587</v>
+      </c>
+      <c r="D546" s="21">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A547" s="21" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B547" s="21" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C547" s="21">
+        <v>2662</v>
+      </c>
+      <c r="D547" s="21">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A548" s="21" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B548" s="21" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C548" s="21">
+        <v>473</v>
+      </c>
+      <c r="D548" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A549" s="21" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B549" s="21" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C549" s="21">
+        <v>3773</v>
+      </c>
+      <c r="D549" s="21">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A550" s="21" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B550" s="21" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C550" s="21">
+        <v>2599</v>
+      </c>
+      <c r="D550" s="21">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A551" s="21" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B551" s="21" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C551" s="21">
+        <v>5412</v>
+      </c>
+      <c r="D551" s="21">
+        <v>10730</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552" s="21" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B552" s="21" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C552" s="21">
+        <v>123</v>
+      </c>
+      <c r="D552" s="21">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A553" s="21" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B553" s="21" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C553" s="21">
+        <v>123</v>
+      </c>
+      <c r="D553" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554" s="21" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B554" s="21" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C554" s="21">
+        <v>2404</v>
+      </c>
+      <c r="D554" s="21">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A555" s="21" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B555" s="21" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C555" s="21">
+        <v>1309</v>
+      </c>
+      <c r="D555" s="21">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556" s="21" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B556" s="21" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C556" s="21">
+        <v>5017</v>
+      </c>
+      <c r="D556" s="21">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557" s="21" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B557" s="21" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C557" s="21">
+        <v>4165</v>
+      </c>
+      <c r="D557" s="21">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558" s="21" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B558" s="21" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C558" s="21">
+        <v>4197</v>
+      </c>
+      <c r="D558" s="21">
+        <v>15067</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559" s="21" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B559" s="21" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C559" s="21">
+        <v>2782</v>
+      </c>
+      <c r="D559" s="21">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A560" s="21" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B560" s="21" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C560" s="21">
+        <v>2192</v>
+      </c>
+      <c r="D560" s="21">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A561" s="21" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B561" s="21" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C561" s="21">
+        <v>4192</v>
+      </c>
+      <c r="D561" s="21">
+        <v>10185</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562" s="21" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B562" s="21" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C562" s="21">
+        <v>3835</v>
+      </c>
+      <c r="D562" s="21">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A563" s="21" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B563" s="21" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C563" s="21">
+        <v>3199</v>
+      </c>
+      <c r="D563" s="21">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A564" s="21" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B564" s="21" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C564" s="21">
+        <v>3904</v>
+      </c>
+      <c r="D564" s="21">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A565" s="21" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B565" s="21" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C565" s="21">
+        <v>27</v>
+      </c>
+      <c r="D565" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A566" s="21" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B566" s="21" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C566" s="21">
+        <v>4672</v>
+      </c>
+      <c r="D566" s="21">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A567" s="21" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B567" s="21" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C567" s="21">
+        <v>3456</v>
+      </c>
+      <c r="D567" s="21">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A568" s="21" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B568" s="21" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C568" s="21">
+        <v>2804</v>
+      </c>
+      <c r="D568" s="21">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A569" s="21" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B569" s="21" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C569" s="21">
+        <v>2955</v>
+      </c>
+      <c r="D569" s="21">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A570" s="21" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B570" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C570" s="21">
+        <v>3217</v>
+      </c>
+      <c r="D570" s="21">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A571" s="21" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B571" s="21" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C571" s="21">
+        <v>27</v>
+      </c>
+      <c r="D571" s="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A572" s="21" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B572" s="21" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C572" s="21">
+        <v>265</v>
+      </c>
+      <c r="D572" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A573" s="21" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B573" s="21" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C573" s="21">
+        <v>2226</v>
+      </c>
+      <c r="D573" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A574" s="21" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B574" s="21" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C574" s="21">
+        <v>2016</v>
+      </c>
+      <c r="D574" s="21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A575" s="21" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B575" s="21" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C575" s="21">
+        <v>2976</v>
+      </c>
+      <c r="D575" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A576" s="21" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B576" s="21" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C576" s="21">
+        <v>2496</v>
+      </c>
+      <c r="D576" s="21">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A577" s="21" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B577" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C577" s="21">
+        <v>1536</v>
+      </c>
+      <c r="D577" s="21">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A578" s="21" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B578" s="21" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C578" s="21">
+        <v>3712</v>
+      </c>
+      <c r="D578" s="21">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A579" s="21" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B579" s="21" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C579" s="21">
+        <v>686</v>
+      </c>
+      <c r="D579" s="21">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A580" s="21" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B580" s="21" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C580" s="21">
+        <v>964</v>
+      </c>
+      <c r="D580" s="21">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A581" s="21" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B581" s="21" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C581" s="21">
+        <v>4000</v>
+      </c>
+      <c r="D581" s="21">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A582" s="21" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B582" s="21" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C582" s="21">
+        <v>1130</v>
+      </c>
+      <c r="D582" s="21">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A583" s="21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B583" s="21" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C583" s="21">
+        <v>821</v>
+      </c>
+      <c r="D583" s="21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A584" s="21" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B584" s="21" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C584" s="21">
+        <v>4119</v>
+      </c>
+      <c r="D584" s="21">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A585" s="21" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B585" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="C585" s="21">
+        <v>2639</v>
+      </c>
+      <c r="D585" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A586" s="21" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B586" s="21" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C586" s="21">
+        <v>2071</v>
+      </c>
+      <c r="D586" s="21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A587" s="21" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B587" s="21" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C587" s="21">
+        <v>3221</v>
+      </c>
+      <c r="D587" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A588" s="21" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B588" s="21" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C588" s="21">
+        <v>1996</v>
+      </c>
+      <c r="D588" s="21">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A589" s="21" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B589" s="21" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C589" s="21">
+        <v>4168</v>
+      </c>
+      <c r="D589" s="21">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A590" s="21" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B590" s="21" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C590" s="21">
+        <v>1893</v>
+      </c>
+      <c r="D590" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A591" s="21" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B591" s="21" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C591" s="21">
+        <v>391</v>
+      </c>
+      <c r="D591" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A592" s="21" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B592" s="21" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C592" s="21">
+        <v>2106</v>
+      </c>
+      <c r="D592" s="21">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A593" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B593" s="21" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C593" s="21">
+        <v>3546</v>
+      </c>
+      <c r="D593" s="21">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A594" s="21" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B594" s="21" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C594" s="21">
+        <v>1037</v>
+      </c>
+      <c r="D594" s="21">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A595" s="21" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B595" s="21" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C595" s="21">
+        <v>1077</v>
+      </c>
+      <c r="D595" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A596" s="21" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B596" s="21" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C596" s="21">
+        <v>1524</v>
+      </c>
+      <c r="D596" s="21">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A597" s="21" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B597" s="21" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C597" s="21">
+        <v>1718</v>
+      </c>
+      <c r="D597" s="21">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A598" s="21" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B598" s="21" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C598" s="21">
+        <v>231</v>
+      </c>
+      <c r="D598" s="21">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A599" s="21" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B599" s="21" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C599" s="21">
+        <v>674</v>
+      </c>
+      <c r="D599" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A600" s="21" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B600" s="21" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C600" s="21">
+        <v>1680</v>
+      </c>
+      <c r="D600" s="21">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A601" s="21" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B601" s="21" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C601" s="21">
+        <v>1575</v>
+      </c>
+      <c r="D601" s="21">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A602" s="21" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B602" s="21" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C602" s="21">
+        <v>1540</v>
+      </c>
+      <c r="D602" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A603" s="21" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B603" s="21" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C603" s="21">
+        <v>3344</v>
+      </c>
+      <c r="D603" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A604" s="21" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B604" s="21" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C604" s="21">
+        <v>3324</v>
+      </c>
+      <c r="D604" s="21">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A605" s="21" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B605" s="21" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C605" s="21">
+        <v>1770</v>
+      </c>
+      <c r="D605" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A606" s="21" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B606" s="21" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C606" s="21">
+        <v>288</v>
+      </c>
+      <c r="D606" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A607" s="21" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B607" s="21" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C607" s="21">
+        <v>2160</v>
+      </c>
+      <c r="D607" s="21">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A608" s="21" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B608" s="21" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C608" s="21">
+        <v>1904</v>
+      </c>
+      <c r="D608" s="21">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A609" s="21" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B609" s="21" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C609" s="21">
+        <v>942</v>
+      </c>
+      <c r="D609" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A610" s="21" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B610" s="21" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C610" s="21">
+        <v>720</v>
+      </c>
+      <c r="D610" s="21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A611" s="21" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B611" s="21" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C611" s="21">
+        <v>445</v>
+      </c>
+      <c r="D611" s="21">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A612" s="21" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B612" s="21" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C612" s="21">
+        <v>2384</v>
+      </c>
+      <c r="D612" s="21">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A613" s="21" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B613" s="21" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C613" s="21">
+        <v>3344</v>
+      </c>
+      <c r="D613" s="21">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A614" s="21" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B614" s="21" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C614" s="21">
+        <v>2117</v>
+      </c>
+      <c r="D614" s="21">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A615" s="21" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B615" s="21" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C615" s="21">
+        <v>1727</v>
+      </c>
+      <c r="D615" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A616" s="21" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B616" s="21" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C616" s="21">
+        <v>2749</v>
+      </c>
+      <c r="D616" s="21">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A617" s="21" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B617" s="21" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C617" s="21">
+        <v>1512</v>
+      </c>
+      <c r="D617" s="21">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A618" s="21" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B618" s="21" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C618" s="21">
+        <v>1558</v>
+      </c>
+      <c r="D618" s="21">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A619" s="21" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B619" s="21" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C619" s="21">
+        <v>0</v>
+      </c>
+      <c r="D619" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A620" s="21" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B620" s="21" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C620" s="21">
+        <v>2502</v>
+      </c>
+      <c r="D620" s="21">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A621" s="21" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B621" s="21" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C621" s="21">
+        <v>2068</v>
+      </c>
+      <c r="D621" s="21">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A622" s="21" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B622" s="21" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C622" s="21">
+        <v>1127</v>
+      </c>
+      <c r="D622" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A623" s="21" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B623" s="21" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C623" s="21">
+        <v>1920</v>
+      </c>
+      <c r="D623" s="21">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A624" s="21" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B624" s="21" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C624" s="21">
+        <v>884</v>
+      </c>
+      <c r="D624" s="21">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A625" s="21" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B625" s="21" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C625" s="21">
+        <v>180</v>
+      </c>
+      <c r="D625" s="21">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A626" s="21" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B626" s="21" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C626" s="21">
+        <v>173</v>
+      </c>
+      <c r="D626" s="21">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A627" s="21" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B627" s="21" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C627" s="21">
+        <v>3053</v>
+      </c>
+      <c r="D627" s="21">
+        <v>6703</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A628" s="21" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B628" s="21" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C628" s="21">
+        <v>173</v>
+      </c>
+      <c r="D628" s="21">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A629" s="21" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B629" s="21" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C629" s="21">
+        <v>197</v>
+      </c>
+      <c r="D629" s="21">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A630" s="21" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B630" s="21" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C630" s="21">
+        <v>2606</v>
+      </c>
+      <c r="D630" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A631" s="21" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B631" s="21" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C631" s="21">
+        <v>122</v>
+      </c>
+      <c r="D631" s="21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A632" s="21" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B632" s="21" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C632" s="21">
+        <v>2400</v>
+      </c>
+      <c r="D632" s="21">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A633" s="21" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B633" s="21" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C633" s="21">
+        <v>2880</v>
+      </c>
+      <c r="D633" s="21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A634" s="21" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B634" s="21" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C634" s="21">
+        <v>1124</v>
+      </c>
+      <c r="D634" s="21">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A635" s="21" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B635" s="21" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C635" s="21">
+        <v>2261</v>
+      </c>
+      <c r="D635" s="21">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A636" s="21" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B636" s="21" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C636" s="21">
+        <v>2710</v>
+      </c>
+      <c r="D636" s="21">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A637" s="21" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B637" s="21" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C637" s="21">
+        <v>323</v>
+      </c>
+      <c r="D637" s="21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A638" s="21" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B638" s="21" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C638" s="21">
+        <v>2880</v>
+      </c>
+      <c r="D638" s="21">
+        <v>6079</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A639" s="21" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B639" s="21" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C639" s="21">
+        <v>1856</v>
+      </c>
+      <c r="D639" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A640" s="21" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B640" s="21" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C640" s="21">
+        <v>67</v>
+      </c>
+      <c r="D640" s="21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A641" s="21" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B641" s="21" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C641" s="21">
+        <v>720</v>
+      </c>
+      <c r="D641" s="21">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A642" s="21" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B642" s="21" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C642" s="21">
+        <v>13</v>
+      </c>
+      <c r="D642" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A643" s="21" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B643" s="21" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C643" s="21">
+        <v>3053</v>
+      </c>
+      <c r="D643" s="21">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A644" s="21" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B644" s="21" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C644" s="21">
+        <v>3053</v>
+      </c>
+      <c r="D644" s="21">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A645" s="21" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B645" s="21" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C645" s="21">
+        <v>2105</v>
+      </c>
+      <c r="D645" s="21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A646" s="21" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B646" s="21" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C646" s="21">
+        <v>959</v>
+      </c>
+      <c r="D646" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A647" s="21" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B647" s="21" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C647" s="21">
+        <v>1332</v>
+      </c>
+      <c r="D647" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A648" s="21" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B648" s="21" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C648" s="21">
+        <v>2348</v>
+      </c>
+      <c r="D648" s="21">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A649" s="21" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B649" s="21" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C649" s="21">
+        <v>2601</v>
+      </c>
+      <c r="D649" s="21">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A650" s="21" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B650" s="21" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C650" s="21">
+        <v>1360</v>
+      </c>
+      <c r="D650" s="21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A651" s="21" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B651" s="21" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C651" s="21">
+        <v>2199</v>
+      </c>
+      <c r="D651" s="21">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A652" s="21" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B652" s="21" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C652" s="21">
+        <v>2199</v>
+      </c>
+      <c r="D652" s="21">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A653" s="21" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B653" s="21" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C653" s="21">
+        <v>1920</v>
+      </c>
+      <c r="D653" s="21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A654" s="21" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B654" s="21" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C654" s="21">
+        <v>960</v>
+      </c>
+      <c r="D654" s="21">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A655" s="21" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B655" s="21" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C655" s="21">
+        <v>1070</v>
+      </c>
+      <c r="D655" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A656" s="21" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B656" s="21" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C656" s="21">
+        <v>1764</v>
+      </c>
+      <c r="D656" s="21">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A657" s="21" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B657" s="21" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C657" s="21">
+        <v>2400</v>
+      </c>
+      <c r="D657" s="21">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A658" s="21" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B658" s="21" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C658" s="21">
+        <v>1886</v>
+      </c>
+      <c r="D658" s="21">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A659" s="21" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B659" s="21" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C659" s="21">
+        <v>876</v>
+      </c>
+      <c r="D659" s="21">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A660" s="21" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B660" s="21" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C660" s="21">
+        <v>2832</v>
+      </c>
+      <c r="D660" s="21">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A661" s="21" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B661" s="21" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C661" s="21">
+        <v>0</v>
+      </c>
+      <c r="D661" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A662" s="21" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B662" s="21" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C662" s="21">
+        <v>0</v>
+      </c>
+      <c r="D662" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A663" s="21" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B663" s="21" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C663" s="21">
+        <v>0</v>
+      </c>
+      <c r="D663" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A664" s="21" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B664" s="21" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C664" s="21">
+        <v>0</v>
+      </c>
+      <c r="D664" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A665" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B665" s="21" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C665" s="21">
+        <v>0</v>
+      </c>
+      <c r="D665" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A666" s="21" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B666" s="21" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C666" s="21">
+        <v>0</v>
+      </c>
+      <c r="D666" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A667" s="21" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B667" s="21" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C667" s="21">
+        <v>0</v>
+      </c>
+      <c r="D667" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A668" s="21" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B668" s="21" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C668" s="21">
+        <v>0</v>
+      </c>
+      <c r="D668" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A669" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B669" s="21" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C669" s="21">
+        <v>0</v>
+      </c>
+      <c r="D669" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A670" s="21" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B670" s="21" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C670" s="21">
+        <v>0</v>
+      </c>
+      <c r="D670" s="21">
         <v>0</v>
       </c>
     </row>
